--- a/output/download-data/iTRAQI - ASGS 2011 SA2.xlsx
+++ b/output/download-data/iTRAQI - ASGS 2011 SA2.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="581">
   <si>
     <t>Suggested citation</t>
   </si>
@@ -1736,9 +1736,6 @@
   </si>
   <si>
     <t>5C</t>
-  </si>
-  <si>
-    <t>6C</t>
   </si>
   <si>
     <t>5B</t>
@@ -8388,7 +8385,7 @@
         <v>444.01763271334164</v>
       </c>
       <c r="H222" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="223">
@@ -8440,7 +8437,7 @@
         <v>428.7984201950769</v>
       </c>
       <c r="H224" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="225">
@@ -15434,7 +15431,7 @@
         <v>219.9791800316649</v>
       </c>
       <c r="H493" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="494">
@@ -15460,7 +15457,7 @@
         <v>228.1325598817241</v>
       </c>
       <c r="H494" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="495">
@@ -15486,7 +15483,7 @@
         <v>219.57642642166468</v>
       </c>
       <c r="H495" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="496">
@@ -15512,7 +15509,7 @@
         <v>219.4795388517972</v>
       </c>
       <c r="H496" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="497">
@@ -15538,7 +15535,7 @@
         <v>223.3136102182658</v>
       </c>
       <c r="H497" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="498">
@@ -15564,7 +15561,7 @@
         <v>228.74127917501812</v>
       </c>
       <c r="H498" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="499">
@@ -15590,7 +15587,7 @@
         <v>264.5797275636006</v>
       </c>
       <c r="H499" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="500">
@@ -15616,7 +15613,7 @@
         <v>221.76742696812016</v>
       </c>
       <c r="H500" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="501">
@@ -15642,7 +15639,7 @@
         <v>220.4146650663588</v>
       </c>
       <c r="H501" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="502">
@@ -15668,7 +15665,7 @@
         <v>218.39041627616848</v>
       </c>
       <c r="H502" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="503">
@@ -15694,7 +15691,7 @@
         <v>218.19350125299377</v>
       </c>
       <c r="H503" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="504">
@@ -16240,7 +16237,7 @@
         <v>149.71120207015292</v>
       </c>
       <c r="H524" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="525">
@@ -16266,7 +16263,7 @@
         <v>153.2220122682496</v>
       </c>
       <c r="H525" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="526">
@@ -16318,7 +16315,7 @@
         <v>150.2985180817759</v>
       </c>
       <c r="H527" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -16339,19 +16336,19 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1" t="s">
         <v>568</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>569</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>570</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>571</v>
-      </c>
-      <c r="F1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="2">
@@ -16359,7 +16356,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C2" t="n">
         <v>287.0</v>
@@ -16379,7 +16376,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C3" t="n">
         <v>464.0</v>
@@ -16399,7 +16396,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C4" t="n">
         <v>365.0</v>
@@ -16419,7 +16416,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C5" t="n">
         <v>288.0</v>
@@ -16439,7 +16436,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C6" t="n">
         <v>226.0</v>
@@ -16459,7 +16456,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C7" t="n">
         <v>438.0</v>
@@ -16479,7 +16476,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C8" t="n">
         <v>286.0</v>
@@ -16499,7 +16496,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C9" t="n">
         <v>441.0</v>
@@ -16519,7 +16516,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C10" t="n">
         <v>395.0</v>
@@ -16539,7 +16536,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C11" t="n">
         <v>24.0</v>
@@ -16559,7 +16556,7 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C12" t="n">
         <v>480.0</v>
@@ -16579,7 +16576,7 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C13" t="n">
         <v>443.0</v>
@@ -16599,7 +16596,7 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C14" t="n">
         <v>308.0</v>
@@ -16619,7 +16616,7 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -16631,7 +16628,7 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C16" t="n">
         <v>362.0</v>
@@ -16651,7 +16648,7 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C17" t="n">
         <v>375.0</v>
@@ -16671,7 +16668,7 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C18" t="n">
         <v>360.0</v>
@@ -16691,7 +16688,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C19" t="n">
         <v>341.0</v>
@@ -16711,7 +16708,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C20" t="n">
         <v>506.0</v>
@@ -16731,7 +16728,7 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C21" t="n">
         <v>243.0</v>
@@ -16751,7 +16748,7 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C22" t="n">
         <v>184.0</v>
@@ -16771,7 +16768,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C23" t="n">
         <v>356.0</v>
@@ -16791,7 +16788,7 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C24" t="n">
         <v>503.0</v>
@@ -16811,7 +16808,7 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C25" t="n">
         <v>454.0</v>
@@ -16831,7 +16828,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C26" t="n">
         <v>394.0</v>
@@ -16851,7 +16848,7 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C27" t="n">
         <v>500.0</v>
@@ -16871,7 +16868,7 @@
         <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C28" t="n">
         <v>363.0</v>
@@ -16891,7 +16888,7 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C29" t="n">
         <v>154.0</v>
@@ -16911,7 +16908,7 @@
         <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C30" t="n">
         <v>411.0</v>
@@ -16931,7 +16928,7 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C31" t="n">
         <v>338.0</v>
@@ -16951,7 +16948,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C32" t="n">
         <v>407.0</v>
@@ -16971,7 +16968,7 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C33" t="n">
         <v>187.0</v>
@@ -16991,7 +16988,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C34" t="n">
         <v>289.0</v>
@@ -17011,7 +17008,7 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C35" t="n">
         <v>435.0</v>
@@ -17031,7 +17028,7 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C36" t="n">
         <v>313.0</v>
@@ -17051,7 +17048,7 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C37" t="n">
         <v>19.0</v>
@@ -17071,7 +17068,7 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C38" t="n">
         <v>105.0</v>
@@ -17091,7 +17088,7 @@
         <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C39" t="n">
         <v>324.0</v>
@@ -17111,7 +17108,7 @@
         <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C40" t="n">
         <v>307.0</v>
@@ -17131,7 +17128,7 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C41" t="n">
         <v>306.0</v>
@@ -17151,7 +17148,7 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C42" t="n">
         <v>358.0</v>
@@ -17171,7 +17168,7 @@
         <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C43" t="n">
         <v>280.0</v>
@@ -17191,7 +17188,7 @@
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C44" t="n">
         <v>188.0</v>
@@ -17211,7 +17208,7 @@
         <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C45" t="n">
         <v>303.0</v>
@@ -17231,7 +17228,7 @@
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C46" t="n">
         <v>266.0</v>
@@ -17251,7 +17248,7 @@
         <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C47" t="n">
         <v>95.0</v>
@@ -17271,7 +17268,7 @@
         <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C48" t="n">
         <v>476.0</v>
@@ -17291,7 +17288,7 @@
         <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C49" t="n">
         <v>364.0</v>
@@ -17311,7 +17308,7 @@
         <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C50" t="n">
         <v>390.0</v>
@@ -17331,7 +17328,7 @@
         <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C51" t="n">
         <v>254.0</v>
@@ -17351,7 +17348,7 @@
         <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C52" t="n">
         <v>482.0</v>
@@ -17371,7 +17368,7 @@
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C53" t="n">
         <v>326.0</v>
@@ -17391,7 +17388,7 @@
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C54" t="n">
         <v>448.0</v>
@@ -17411,7 +17408,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C55" t="n">
         <v>273.0</v>
@@ -17431,7 +17428,7 @@
         <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C56" t="n">
         <v>371.0</v>
@@ -17451,7 +17448,7 @@
         <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C57" t="n">
         <v>330.0</v>
@@ -17471,7 +17468,7 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C58" t="n">
         <v>439.0</v>
@@ -17491,7 +17488,7 @@
         <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C59" t="n">
         <v>241.0</v>
@@ -17511,7 +17508,7 @@
         <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C60" t="n">
         <v>423.0</v>
@@ -17531,7 +17528,7 @@
         <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C61" t="n">
         <v>392.0</v>
@@ -17551,7 +17548,7 @@
         <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C62" t="n">
         <v>281.0</v>
@@ -17571,7 +17568,7 @@
         <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C63" t="n">
         <v>342.0</v>
@@ -17591,7 +17588,7 @@
         <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C64" t="n">
         <v>310.0</v>
@@ -17611,7 +17608,7 @@
         <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C65" t="n">
         <v>483.0</v>
@@ -17631,7 +17628,7 @@
         <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C66" t="n">
         <v>251.0</v>
@@ -17651,7 +17648,7 @@
         <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C67" t="n">
         <v>427.0</v>
@@ -17671,7 +17668,7 @@
         <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C68" t="n">
         <v>157.0</v>
@@ -17691,7 +17688,7 @@
         <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C69" t="n">
         <v>292.0</v>
@@ -17711,7 +17708,7 @@
         <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C70" t="n">
         <v>239.0</v>
@@ -17731,7 +17728,7 @@
         <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C71" t="n">
         <v>304.0</v>
@@ -17751,7 +17748,7 @@
         <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C72" t="n">
         <v>470.0</v>
@@ -17771,7 +17768,7 @@
         <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C73" t="n">
         <v>321.0</v>
@@ -17791,7 +17788,7 @@
         <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C74" t="n">
         <v>414.0</v>
@@ -17811,7 +17808,7 @@
         <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C75" t="n">
         <v>434.0</v>
@@ -17831,7 +17828,7 @@
         <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C76" t="n">
         <v>459.0</v>
@@ -17851,7 +17848,7 @@
         <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C77" t="n">
         <v>38.0</v>
@@ -17871,7 +17868,7 @@
         <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C78" t="n">
         <v>386.0</v>
@@ -17891,7 +17888,7 @@
         <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C79" t="n">
         <v>269.0</v>
@@ -17911,7 +17908,7 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C80" t="n">
         <v>213.0</v>
@@ -17931,7 +17928,7 @@
         <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C81" t="n">
         <v>276.0</v>
@@ -17951,7 +17948,7 @@
         <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C82" t="n">
         <v>474.0</v>
@@ -17971,7 +17968,7 @@
         <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C83" t="n">
         <v>460.0</v>
@@ -17991,7 +17988,7 @@
         <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C84" t="n">
         <v>449.0</v>
@@ -18011,7 +18008,7 @@
         <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C85" t="n">
         <v>493.0</v>
@@ -18031,7 +18028,7 @@
         <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C86" t="n">
         <v>505.0</v>
@@ -18051,7 +18048,7 @@
         <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C87" t="n">
         <v>501.0</v>
@@ -18071,7 +18068,7 @@
         <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C88" t="n">
         <v>509.0</v>
@@ -18091,7 +18088,7 @@
         <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C89" t="n">
         <v>510.0</v>
@@ -18111,7 +18108,7 @@
         <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C90" t="n">
         <v>511.0</v>
@@ -18131,7 +18128,7 @@
         <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C91" t="n">
         <v>497.0</v>
@@ -18151,7 +18148,7 @@
         <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C92" t="n">
         <v>512.0</v>
@@ -18171,7 +18168,7 @@
         <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C93" t="n">
         <v>504.0</v>
@@ -18191,7 +18188,7 @@
         <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C94" t="n">
         <v>409.0</v>
@@ -18211,7 +18208,7 @@
         <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C95" t="n">
         <v>461.0</v>
@@ -18231,7 +18228,7 @@
         <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C96" t="n">
         <v>471.0</v>
@@ -18251,7 +18248,7 @@
         <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C97" t="n">
         <v>399.0</v>
@@ -18271,7 +18268,7 @@
         <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C98" t="n">
         <v>462.0</v>
@@ -18291,7 +18288,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C99" t="n">
         <v>328.0</v>
@@ -18311,7 +18308,7 @@
         <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
@@ -18323,7 +18320,7 @@
         <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C101" t="n">
         <v>215.0</v>
@@ -18343,7 +18340,7 @@
         <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C102" t="n">
         <v>437.0</v>
@@ -18363,7 +18360,7 @@
         <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
@@ -18375,7 +18372,7 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C104" t="n">
         <v>498.0</v>
@@ -18395,7 +18392,7 @@
         <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C105" t="n">
         <v>481.0</v>
@@ -18415,7 +18412,7 @@
         <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C106" t="n">
         <v>410.0</v>
@@ -18435,7 +18432,7 @@
         <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C107" t="n">
         <v>378.0</v>
@@ -18455,7 +18452,7 @@
         <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C108" t="n">
         <v>323.0</v>
@@ -18475,7 +18472,7 @@
         <v>138</v>
       </c>
       <c r="B109" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C109" t="n">
         <v>413.0</v>
@@ -18495,7 +18492,7 @@
         <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C110" t="n">
         <v>420.0</v>
@@ -18515,7 +18512,7 @@
         <v>140</v>
       </c>
       <c r="B111" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C111" t="n">
         <v>346.0</v>
@@ -18535,7 +18532,7 @@
         <v>141</v>
       </c>
       <c r="B112" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C112" t="n">
         <v>283.0</v>
@@ -18555,7 +18552,7 @@
         <v>142</v>
       </c>
       <c r="B113" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C113" t="n">
         <v>297.0</v>
@@ -18575,7 +18572,7 @@
         <v>143</v>
       </c>
       <c r="B114" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C114" t="n">
         <v>485.0</v>
@@ -18595,7 +18592,7 @@
         <v>144</v>
       </c>
       <c r="B115" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C115" t="n">
         <v>486.0</v>
@@ -18615,7 +18612,7 @@
         <v>145</v>
       </c>
       <c r="B116" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C116" t="n">
         <v>403.0</v>
@@ -18635,7 +18632,7 @@
         <v>146</v>
       </c>
       <c r="B117" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C117" t="n">
         <v>495.0</v>
@@ -18655,7 +18652,7 @@
         <v>147</v>
       </c>
       <c r="B118" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C118" t="n">
         <v>419.0</v>
@@ -18675,7 +18672,7 @@
         <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C119" t="n">
         <v>499.0</v>
@@ -18695,7 +18692,7 @@
         <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C120" t="n">
         <v>417.0</v>
@@ -18715,7 +18712,7 @@
         <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C121" t="n">
         <v>463.0</v>
@@ -18735,7 +18732,7 @@
         <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C122" t="n">
         <v>458.0</v>
@@ -18755,7 +18752,7 @@
         <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C123" t="n">
         <v>447.0</v>
@@ -18775,7 +18772,7 @@
         <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C124" t="n">
         <v>488.0</v>
@@ -18795,7 +18792,7 @@
         <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C125" t="n">
         <v>469.0</v>
@@ -18815,7 +18812,7 @@
         <v>155</v>
       </c>
       <c r="B126" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C126" t="n">
         <v>453.0</v>
@@ -18835,7 +18832,7 @@
         <v>156</v>
       </c>
       <c r="B127" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C127" t="n">
         <v>320.0</v>
@@ -18855,7 +18852,7 @@
         <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C128" t="n">
         <v>431.0</v>
@@ -18875,7 +18872,7 @@
         <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C129" t="n">
         <v>487.0</v>
@@ -18895,7 +18892,7 @@
         <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C130" t="n">
         <v>492.0</v>
@@ -18915,7 +18912,7 @@
         <v>160</v>
       </c>
       <c r="B131" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C131" t="n">
         <v>412.0</v>
@@ -18935,7 +18932,7 @@
         <v>161</v>
       </c>
       <c r="B132" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C132" t="n">
         <v>405.0</v>
@@ -18955,7 +18952,7 @@
         <v>162</v>
       </c>
       <c r="B133" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C133" t="n">
         <v>496.0</v>
@@ -18975,7 +18972,7 @@
         <v>163</v>
       </c>
       <c r="B134" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C134" t="n">
         <v>494.0</v>
@@ -18995,7 +18992,7 @@
         <v>164</v>
       </c>
       <c r="B135" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C135" t="n">
         <v>507.0</v>
@@ -19015,7 +19012,7 @@
         <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C136" t="n">
         <v>484.0</v>
@@ -19035,7 +19032,7 @@
         <v>166</v>
       </c>
       <c r="B137" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C137" t="n">
         <v>465.0</v>
@@ -19055,7 +19052,7 @@
         <v>167</v>
       </c>
       <c r="B138" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C138" t="n">
         <v>475.0</v>
@@ -19075,7 +19072,7 @@
         <v>168</v>
       </c>
       <c r="B139" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C139" t="n">
         <v>455.0</v>
@@ -19095,7 +19092,7 @@
         <v>169</v>
       </c>
       <c r="B140" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C140" t="n">
         <v>376.0</v>
@@ -19115,7 +19112,7 @@
         <v>170</v>
       </c>
       <c r="B141" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C141" t="n">
         <v>361.0</v>
@@ -19135,7 +19132,7 @@
         <v>171</v>
       </c>
       <c r="B142" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C142" t="n">
         <v>433.0</v>
@@ -19155,7 +19152,7 @@
         <v>172</v>
       </c>
       <c r="B143" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C143" t="n">
         <v>316.0</v>
@@ -19175,7 +19172,7 @@
         <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C144" t="n">
         <v>166.0</v>
@@ -19195,7 +19192,7 @@
         <v>174</v>
       </c>
       <c r="B145" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C145" t="n">
         <v>200.0</v>
@@ -19215,7 +19212,7 @@
         <v>175</v>
       </c>
       <c r="B146" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C146" t="n">
         <v>128.0</v>
@@ -19235,7 +19232,7 @@
         <v>176</v>
       </c>
       <c r="B147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C147" t="n">
         <v>238.0</v>
@@ -19255,7 +19252,7 @@
         <v>177</v>
       </c>
       <c r="B148" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C148" t="n">
         <v>133.0</v>
@@ -19275,7 +19272,7 @@
         <v>178</v>
       </c>
       <c r="B149" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C149" t="n">
         <v>178.0</v>
@@ -19295,7 +19292,7 @@
         <v>179</v>
       </c>
       <c r="B150" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C150" t="n">
         <v>195.0</v>
@@ -19315,7 +19312,7 @@
         <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -19327,7 +19324,7 @@
         <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C152" t="n">
         <v>15.0</v>
@@ -19347,7 +19344,7 @@
         <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C153" t="n">
         <v>18.0</v>
@@ -19367,7 +19364,7 @@
         <v>183</v>
       </c>
       <c r="B154" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C154" t="n">
         <v>317.0</v>
@@ -19387,7 +19384,7 @@
         <v>184</v>
       </c>
       <c r="B155" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C155" t="n">
         <v>22.0</v>
@@ -19407,7 +19404,7 @@
         <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C156" t="n">
         <v>68.0</v>
@@ -19427,7 +19424,7 @@
         <v>186</v>
       </c>
       <c r="B157" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C157" t="n">
         <v>284.0</v>
@@ -19447,7 +19444,7 @@
         <v>187</v>
       </c>
       <c r="B158" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C158" t="n">
         <v>27.0</v>
@@ -19467,7 +19464,7 @@
         <v>188</v>
       </c>
       <c r="B159" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C159" t="n">
         <v>155.0</v>
@@ -19487,7 +19484,7 @@
         <v>189</v>
       </c>
       <c r="B160" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C160" t="n">
         <v>37.0</v>
@@ -19507,7 +19504,7 @@
         <v>190</v>
       </c>
       <c r="B161" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C161" t="n">
         <v>175.0</v>
@@ -19527,7 +19524,7 @@
         <v>191</v>
       </c>
       <c r="B162" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C162" t="n">
         <v>121.0</v>
@@ -19547,7 +19544,7 @@
         <v>192</v>
       </c>
       <c r="B163" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
@@ -19559,7 +19556,7 @@
         <v>193</v>
       </c>
       <c r="B164" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C164" t="n">
         <v>1.0</v>
@@ -19579,7 +19576,7 @@
         <v>194</v>
       </c>
       <c r="B165" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C165" t="n">
         <v>113.0</v>
@@ -19599,7 +19596,7 @@
         <v>195</v>
       </c>
       <c r="B166" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C166" t="n">
         <v>285.0</v>
@@ -19619,7 +19616,7 @@
         <v>196</v>
       </c>
       <c r="B167" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C167" t="n">
         <v>135.0</v>
@@ -19639,7 +19636,7 @@
         <v>197</v>
       </c>
       <c r="B168" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C168" t="n">
         <v>34.0</v>
@@ -19659,7 +19656,7 @@
         <v>198</v>
       </c>
       <c r="B169" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C169" t="n">
         <v>116.0</v>
@@ -19679,7 +19676,7 @@
         <v>199</v>
       </c>
       <c r="B170" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C170" t="n">
         <v>181.0</v>
@@ -19699,7 +19696,7 @@
         <v>200</v>
       </c>
       <c r="B171" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C171" t="n">
         <v>64.0</v>
@@ -19719,7 +19716,7 @@
         <v>201</v>
       </c>
       <c r="B172" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C172" t="n">
         <v>134.0</v>
@@ -19739,7 +19736,7 @@
         <v>202</v>
       </c>
       <c r="B173" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C173" t="n">
         <v>253.0</v>
@@ -19759,7 +19756,7 @@
         <v>203</v>
       </c>
       <c r="B174" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C174" t="n">
         <v>219.0</v>
@@ -19779,7 +19776,7 @@
         <v>204</v>
       </c>
       <c r="B175" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C175" t="n">
         <v>108.0</v>
@@ -19799,7 +19796,7 @@
         <v>205</v>
       </c>
       <c r="B176" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C176" t="n">
         <v>191.0</v>
@@ -19819,7 +19816,7 @@
         <v>206</v>
       </c>
       <c r="B177" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C177" t="n">
         <v>255.0</v>
@@ -19839,7 +19836,7 @@
         <v>207</v>
       </c>
       <c r="B178" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C178" t="n">
         <v>210.0</v>
@@ -19859,7 +19856,7 @@
         <v>208</v>
       </c>
       <c r="B179" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -19879,7 +19876,7 @@
         <v>209</v>
       </c>
       <c r="B180" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C180" t="n">
         <v>106.0</v>
@@ -19899,7 +19896,7 @@
         <v>210</v>
       </c>
       <c r="B181" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C181" t="n">
         <v>129.0</v>
@@ -19919,7 +19916,7 @@
         <v>211</v>
       </c>
       <c r="B182" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C182" t="n">
         <v>110.0</v>
@@ -19939,7 +19936,7 @@
         <v>212</v>
       </c>
       <c r="B183" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C183" t="n">
         <v>201.0</v>
@@ -19959,7 +19956,7 @@
         <v>213</v>
       </c>
       <c r="B184" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C184" t="n">
         <v>206.0</v>
@@ -19979,7 +19976,7 @@
         <v>214</v>
       </c>
       <c r="B185" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C185" t="n">
         <v>176.0</v>
@@ -19999,7 +19996,7 @@
         <v>215</v>
       </c>
       <c r="B186" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C186" t="n">
         <v>148.0</v>
@@ -20019,7 +20016,7 @@
         <v>216</v>
       </c>
       <c r="B187" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C187" t="n">
         <v>125.0</v>
@@ -20039,7 +20036,7 @@
         <v>217</v>
       </c>
       <c r="B188" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C188" t="n">
         <v>62.0</v>
@@ -20059,7 +20056,7 @@
         <v>218</v>
       </c>
       <c r="B189" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C189" t="n">
         <v>136.0</v>
@@ -20079,7 +20076,7 @@
         <v>219</v>
       </c>
       <c r="B190" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C190" t="n">
         <v>91.0</v>
@@ -20099,7 +20096,7 @@
         <v>220</v>
       </c>
       <c r="B191" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C191" t="n">
         <v>124.0</v>
@@ -20119,7 +20116,7 @@
         <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C192" t="n">
         <v>250.0</v>
@@ -20139,7 +20136,7 @@
         <v>222</v>
       </c>
       <c r="B193" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C193" t="n">
         <v>406.0</v>
@@ -20159,7 +20156,7 @@
         <v>223</v>
       </c>
       <c r="B194" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C194" t="n">
         <v>56.0</v>
@@ -20179,7 +20176,7 @@
         <v>224</v>
       </c>
       <c r="B195" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C195" t="n">
         <v>232.0</v>
@@ -20199,7 +20196,7 @@
         <v>225</v>
       </c>
       <c r="B196" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C196" t="n">
         <v>194.0</v>
@@ -20219,7 +20216,7 @@
         <v>226</v>
       </c>
       <c r="B197" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C197" t="n">
         <v>388.0</v>
@@ -20239,7 +20236,7 @@
         <v>227</v>
       </c>
       <c r="B198" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C198" t="n">
         <v>35.0</v>
@@ -20259,7 +20256,7 @@
         <v>228</v>
       </c>
       <c r="B199" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C199" t="n">
         <v>343.0</v>
@@ -20279,7 +20276,7 @@
         <v>229</v>
       </c>
       <c r="B200" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C200" t="n">
         <v>161.0</v>
@@ -20299,7 +20296,7 @@
         <v>230</v>
       </c>
       <c r="B201" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C201" t="n">
         <v>309.0</v>
@@ -20319,7 +20316,7 @@
         <v>231</v>
       </c>
       <c r="B202" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C202" t="n">
         <v>369.0</v>
@@ -20339,7 +20336,7 @@
         <v>232</v>
       </c>
       <c r="B203" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C203"/>
       <c r="D203"/>
@@ -20351,7 +20348,7 @@
         <v>233</v>
       </c>
       <c r="B204" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C204" t="n">
         <v>391.0</v>
@@ -20371,7 +20368,7 @@
         <v>234</v>
       </c>
       <c r="B205" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C205" t="n">
         <v>192.0</v>
@@ -20391,7 +20388,7 @@
         <v>235</v>
       </c>
       <c r="B206" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C206" t="n">
         <v>46.0</v>
@@ -20411,7 +20408,7 @@
         <v>236</v>
       </c>
       <c r="B207" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C207" t="n">
         <v>163.0</v>
@@ -20431,7 +20428,7 @@
         <v>237</v>
       </c>
       <c r="B208" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C208" t="n">
         <v>171.0</v>
@@ -20451,7 +20448,7 @@
         <v>238</v>
       </c>
       <c r="B209" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C209" t="n">
         <v>315.0</v>
@@ -20471,7 +20468,7 @@
         <v>239</v>
       </c>
       <c r="B210" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C210" t="n">
         <v>456.0</v>
@@ -20491,7 +20488,7 @@
         <v>240</v>
       </c>
       <c r="B211" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C211" t="n">
         <v>244.0</v>
@@ -20511,7 +20508,7 @@
         <v>241</v>
       </c>
       <c r="B212" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C212" t="n">
         <v>80.0</v>
@@ -20531,7 +20528,7 @@
         <v>242</v>
       </c>
       <c r="B213" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C213" t="n">
         <v>14.0</v>
@@ -20551,7 +20548,7 @@
         <v>243</v>
       </c>
       <c r="B214" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C214" t="n">
         <v>298.0</v>
@@ -20571,7 +20568,7 @@
         <v>244</v>
       </c>
       <c r="B215" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C215" t="n">
         <v>89.0</v>
@@ -20591,7 +20588,7 @@
         <v>245</v>
       </c>
       <c r="B216" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C216" t="n">
         <v>149.0</v>
@@ -20611,7 +20608,7 @@
         <v>246</v>
       </c>
       <c r="B217" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C217" t="n">
         <v>153.0</v>
@@ -20631,7 +20628,7 @@
         <v>247</v>
       </c>
       <c r="B218" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C218" t="n">
         <v>20.0</v>
@@ -20651,7 +20648,7 @@
         <v>248</v>
       </c>
       <c r="B219" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C219" t="n">
         <v>207.0</v>
@@ -20671,7 +20668,7 @@
         <v>249</v>
       </c>
       <c r="B220" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C220" t="n">
         <v>247.0</v>
@@ -20691,7 +20688,7 @@
         <v>250</v>
       </c>
       <c r="B221" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C221" t="n">
         <v>299.0</v>
@@ -20711,7 +20708,7 @@
         <v>251</v>
       </c>
       <c r="B222" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C222"/>
       <c r="D222"/>
@@ -20723,7 +20720,7 @@
         <v>252</v>
       </c>
       <c r="B223" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C223" t="n">
         <v>236.0</v>
@@ -20743,7 +20740,7 @@
         <v>253</v>
       </c>
       <c r="B224" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C224" t="n">
         <v>218.0</v>
@@ -20763,7 +20760,7 @@
         <v>254</v>
       </c>
       <c r="B225" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C225" t="n">
         <v>379.0</v>
@@ -20783,7 +20780,7 @@
         <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C226" t="n">
         <v>259.0</v>
@@ -20803,7 +20800,7 @@
         <v>256</v>
       </c>
       <c r="B227" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C227" t="n">
         <v>300.0</v>
@@ -20823,7 +20820,7 @@
         <v>257</v>
       </c>
       <c r="B228" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C228" t="n">
         <v>312.0</v>
@@ -20843,7 +20840,7 @@
         <v>258</v>
       </c>
       <c r="B229" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C229" t="n">
         <v>275.0</v>
@@ -20863,7 +20860,7 @@
         <v>259</v>
       </c>
       <c r="B230" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C230" t="n">
         <v>262.0</v>
@@ -20883,7 +20880,7 @@
         <v>260</v>
       </c>
       <c r="B231" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C231" t="n">
         <v>90.0</v>
@@ -20903,7 +20900,7 @@
         <v>261</v>
       </c>
       <c r="B232" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C232" t="n">
         <v>211.0</v>
@@ -20923,7 +20920,7 @@
         <v>262</v>
       </c>
       <c r="B233" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C233" t="n">
         <v>231.0</v>
@@ -20943,7 +20940,7 @@
         <v>263</v>
       </c>
       <c r="B234" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C234" t="n">
         <v>314.0</v>
@@ -20963,7 +20960,7 @@
         <v>264</v>
       </c>
       <c r="B235" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C235" t="n">
         <v>173.0</v>
@@ -20983,7 +20980,7 @@
         <v>265</v>
       </c>
       <c r="B236" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C236" t="n">
         <v>291.0</v>
@@ -21003,7 +21000,7 @@
         <v>266</v>
       </c>
       <c r="B237" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C237" t="n">
         <v>165.0</v>
@@ -21023,7 +21020,7 @@
         <v>267</v>
       </c>
       <c r="B238" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C238" t="n">
         <v>138.0</v>
@@ -21043,7 +21040,7 @@
         <v>268</v>
       </c>
       <c r="B239" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C239" t="n">
         <v>77.0</v>
@@ -21063,7 +21060,7 @@
         <v>269</v>
       </c>
       <c r="B240" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C240" t="n">
         <v>366.0</v>
@@ -21083,7 +21080,7 @@
         <v>270</v>
       </c>
       <c r="B241" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C241" t="n">
         <v>351.0</v>
@@ -21103,7 +21100,7 @@
         <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C242" t="n">
         <v>295.0</v>
@@ -21123,7 +21120,7 @@
         <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C243" t="n">
         <v>327.0</v>
@@ -21143,7 +21140,7 @@
         <v>273</v>
       </c>
       <c r="B244" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C244" t="n">
         <v>426.0</v>
@@ -21163,7 +21160,7 @@
         <v>274</v>
       </c>
       <c r="B245" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C245" t="n">
         <v>355.0</v>
@@ -21183,7 +21180,7 @@
         <v>275</v>
       </c>
       <c r="B246" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C246" t="n">
         <v>345.0</v>
@@ -21203,7 +21200,7 @@
         <v>276</v>
       </c>
       <c r="B247" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C247" t="n">
         <v>278.0</v>
@@ -21223,7 +21220,7 @@
         <v>277</v>
       </c>
       <c r="B248" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C248" t="n">
         <v>256.0</v>
@@ -21243,7 +21240,7 @@
         <v>278</v>
       </c>
       <c r="B249" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C249" t="n">
         <v>159.0</v>
@@ -21263,7 +21260,7 @@
         <v>279</v>
       </c>
       <c r="B250" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C250" t="n">
         <v>370.0</v>
@@ -21283,7 +21280,7 @@
         <v>280</v>
       </c>
       <c r="B251" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C251" t="n">
         <v>401.0</v>
@@ -21303,7 +21300,7 @@
         <v>281</v>
       </c>
       <c r="B252" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C252" t="n">
         <v>367.0</v>
@@ -21323,7 +21320,7 @@
         <v>282</v>
       </c>
       <c r="B253" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C253" t="n">
         <v>373.0</v>
@@ -21343,7 +21340,7 @@
         <v>283</v>
       </c>
       <c r="B254" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C254" t="n">
         <v>442.0</v>
@@ -21363,7 +21360,7 @@
         <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C255" t="n">
         <v>268.0</v>
@@ -21383,7 +21380,7 @@
         <v>285</v>
       </c>
       <c r="B256" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C256" t="n">
         <v>383.0</v>
@@ -21403,7 +21400,7 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C257" t="n">
         <v>340.0</v>
@@ -21423,7 +21420,7 @@
         <v>287</v>
       </c>
       <c r="B258" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C258" t="n">
         <v>305.0</v>
@@ -21443,7 +21440,7 @@
         <v>288</v>
       </c>
       <c r="B259" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C259" t="n">
         <v>311.0</v>
@@ -21463,7 +21460,7 @@
         <v>289</v>
       </c>
       <c r="B260" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C260" t="n">
         <v>424.0</v>
@@ -21483,7 +21480,7 @@
         <v>290</v>
       </c>
       <c r="B261" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C261" t="n">
         <v>242.0</v>
@@ -21503,7 +21500,7 @@
         <v>291</v>
       </c>
       <c r="B262" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C262" t="n">
         <v>359.0</v>
@@ -21523,7 +21520,7 @@
         <v>292</v>
       </c>
       <c r="B263" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C263" t="n">
         <v>225.0</v>
@@ -21543,7 +21540,7 @@
         <v>293</v>
       </c>
       <c r="B264" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C264" t="n">
         <v>274.0</v>
@@ -21563,7 +21560,7 @@
         <v>294</v>
       </c>
       <c r="B265" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C265" t="n">
         <v>214.0</v>
@@ -21583,7 +21580,7 @@
         <v>295</v>
       </c>
       <c r="B266" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C266" t="n">
         <v>368.0</v>
@@ -21603,7 +21600,7 @@
         <v>296</v>
       </c>
       <c r="B267" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C267" t="n">
         <v>112.0</v>
@@ -21623,7 +21620,7 @@
         <v>297</v>
       </c>
       <c r="B268" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C268" t="n">
         <v>377.0</v>
@@ -21643,7 +21640,7 @@
         <v>298</v>
       </c>
       <c r="B269" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C269" t="n">
         <v>402.0</v>
@@ -21663,7 +21660,7 @@
         <v>299</v>
       </c>
       <c r="B270" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C270" t="n">
         <v>440.0</v>
@@ -21683,7 +21680,7 @@
         <v>300</v>
       </c>
       <c r="B271" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C271" t="n">
         <v>193.0</v>
@@ -21703,7 +21700,7 @@
         <v>301</v>
       </c>
       <c r="B272" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C272" t="n">
         <v>92.0</v>
@@ -21723,7 +21720,7 @@
         <v>302</v>
       </c>
       <c r="B273" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C273" t="n">
         <v>63.0</v>
@@ -21743,7 +21740,7 @@
         <v>303</v>
       </c>
       <c r="B274" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C274" t="n">
         <v>333.0</v>
@@ -21763,7 +21760,7 @@
         <v>304</v>
       </c>
       <c r="B275" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C275" t="n">
         <v>8.0</v>
@@ -21783,7 +21780,7 @@
         <v>305</v>
       </c>
       <c r="B276" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C276" t="n">
         <v>347.0</v>
@@ -21803,7 +21800,7 @@
         <v>306</v>
       </c>
       <c r="B277" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C277" t="n">
         <v>11.0</v>
@@ -21823,7 +21820,7 @@
         <v>307</v>
       </c>
       <c r="B278" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C278" t="n">
         <v>199.0</v>
@@ -21843,7 +21840,7 @@
         <v>308</v>
       </c>
       <c r="B279" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C279" t="n">
         <v>69.0</v>
@@ -21863,7 +21860,7 @@
         <v>309</v>
       </c>
       <c r="B280" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C280"/>
       <c r="D280"/>
@@ -21875,7 +21872,7 @@
         <v>310</v>
       </c>
       <c r="B281" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C281" t="n">
         <v>82.0</v>
@@ -21895,7 +21892,7 @@
         <v>311</v>
       </c>
       <c r="B282" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C282" t="n">
         <v>111.0</v>
@@ -21915,7 +21912,7 @@
         <v>312</v>
       </c>
       <c r="B283" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C283" t="n">
         <v>183.0</v>
@@ -21935,7 +21932,7 @@
         <v>313</v>
       </c>
       <c r="B284" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C284" t="n">
         <v>156.0</v>
@@ -21955,7 +21952,7 @@
         <v>314</v>
       </c>
       <c r="B285" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C285" t="n">
         <v>66.0</v>
@@ -21975,7 +21972,7 @@
         <v>315</v>
       </c>
       <c r="B286" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C286" t="n">
         <v>209.0</v>
@@ -21995,7 +21992,7 @@
         <v>316</v>
       </c>
       <c r="B287" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C287" t="n">
         <v>97.0</v>
@@ -22015,7 +22012,7 @@
         <v>317</v>
       </c>
       <c r="B288" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C288" t="n">
         <v>88.0</v>
@@ -22035,7 +22032,7 @@
         <v>318</v>
       </c>
       <c r="B289" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C289" t="n">
         <v>430.0</v>
@@ -22055,7 +22052,7 @@
         <v>319</v>
       </c>
       <c r="B290" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C290" t="n">
         <v>477.0</v>
@@ -22075,7 +22072,7 @@
         <v>320</v>
       </c>
       <c r="B291" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C291" t="n">
         <v>472.0</v>
@@ -22095,7 +22092,7 @@
         <v>321</v>
       </c>
       <c r="B292" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C292" t="n">
         <v>25.0</v>
@@ -22115,7 +22112,7 @@
         <v>322</v>
       </c>
       <c r="B293" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C293" t="n">
         <v>59.0</v>
@@ -22135,7 +22132,7 @@
         <v>323</v>
       </c>
       <c r="B294" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C294" t="n">
         <v>189.0</v>
@@ -22155,7 +22152,7 @@
         <v>324</v>
       </c>
       <c r="B295" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C295" t="n">
         <v>418.0</v>
@@ -22175,7 +22172,7 @@
         <v>325</v>
       </c>
       <c r="B296" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C296" t="n">
         <v>9.0</v>
@@ -22195,7 +22192,7 @@
         <v>326</v>
       </c>
       <c r="B297" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C297" t="n">
         <v>349.0</v>
@@ -22215,7 +22212,7 @@
         <v>327</v>
       </c>
       <c r="B298" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C298" t="n">
         <v>167.0</v>
@@ -22235,7 +22232,7 @@
         <v>328</v>
       </c>
       <c r="B299" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C299"/>
       <c r="D299"/>
@@ -22247,7 +22244,7 @@
         <v>329</v>
       </c>
       <c r="B300" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C300" t="n">
         <v>152.0</v>
@@ -22267,7 +22264,7 @@
         <v>330</v>
       </c>
       <c r="B301" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C301" t="n">
         <v>23.0</v>
@@ -22287,7 +22284,7 @@
         <v>331</v>
       </c>
       <c r="B302" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C302"/>
       <c r="D302"/>
@@ -22299,7 +22296,7 @@
         <v>332</v>
       </c>
       <c r="B303" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C303" t="n">
         <v>85.0</v>
@@ -22319,7 +22316,7 @@
         <v>333</v>
       </c>
       <c r="B304" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C304" t="n">
         <v>334.0</v>
@@ -22339,7 +22336,7 @@
         <v>334</v>
       </c>
       <c r="B305" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C305" t="n">
         <v>432.0</v>
@@ -22359,7 +22356,7 @@
         <v>335</v>
       </c>
       <c r="B306" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C306" t="n">
         <v>101.0</v>
@@ -22379,7 +22376,7 @@
         <v>336</v>
       </c>
       <c r="B307" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C307" t="n">
         <v>31.0</v>
@@ -22399,7 +22396,7 @@
         <v>337</v>
       </c>
       <c r="B308" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C308" t="n">
         <v>28.0</v>
@@ -22419,7 +22416,7 @@
         <v>338</v>
       </c>
       <c r="B309" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C309" t="n">
         <v>205.0</v>
@@ -22439,7 +22436,7 @@
         <v>339</v>
       </c>
       <c r="B310" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C310" t="n">
         <v>212.0</v>
@@ -22459,7 +22456,7 @@
         <v>340</v>
       </c>
       <c r="B311" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C311" t="n">
         <v>421.0</v>
@@ -22479,7 +22476,7 @@
         <v>341</v>
       </c>
       <c r="B312" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C312" t="n">
         <v>122.0</v>
@@ -22499,7 +22496,7 @@
         <v>342</v>
       </c>
       <c r="B313" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C313" t="n">
         <v>126.0</v>
@@ -22519,7 +22516,7 @@
         <v>343</v>
       </c>
       <c r="B314" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C314" t="n">
         <v>249.0</v>
@@ -22539,7 +22536,7 @@
         <v>344</v>
       </c>
       <c r="B315" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C315" t="n">
         <v>61.0</v>
@@ -22559,7 +22556,7 @@
         <v>345</v>
       </c>
       <c r="B316" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C316"/>
       <c r="D316"/>
@@ -22571,7 +22568,7 @@
         <v>346</v>
       </c>
       <c r="B317" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C317" t="n">
         <v>257.0</v>
@@ -22591,7 +22588,7 @@
         <v>347</v>
       </c>
       <c r="B318" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C318" t="n">
         <v>48.0</v>
@@ -22611,7 +22608,7 @@
         <v>348</v>
       </c>
       <c r="B319" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C319" t="n">
         <v>384.0</v>
@@ -22631,7 +22628,7 @@
         <v>349</v>
       </c>
       <c r="B320" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C320" t="n">
         <v>264.0</v>
@@ -22651,7 +22648,7 @@
         <v>350</v>
       </c>
       <c r="B321" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C321" t="n">
         <v>396.0</v>
@@ -22671,7 +22668,7 @@
         <v>351</v>
       </c>
       <c r="B322" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C322" t="n">
         <v>322.0</v>
@@ -22691,7 +22688,7 @@
         <v>352</v>
       </c>
       <c r="B323" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C323" t="n">
         <v>337.0</v>
@@ -22711,7 +22708,7 @@
         <v>353</v>
       </c>
       <c r="B324" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C324" t="n">
         <v>140.0</v>
@@ -22731,7 +22728,7 @@
         <v>354</v>
       </c>
       <c r="B325" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C325" t="n">
         <v>450.0</v>
@@ -22751,7 +22748,7 @@
         <v>355</v>
       </c>
       <c r="B326" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C326" t="n">
         <v>319.0</v>
@@ -22771,7 +22768,7 @@
         <v>356</v>
       </c>
       <c r="B327" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C327" t="n">
         <v>60.0</v>
@@ -22791,7 +22788,7 @@
         <v>357</v>
       </c>
       <c r="B328" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C328" t="n">
         <v>452.0</v>
@@ -22811,7 +22808,7 @@
         <v>358</v>
       </c>
       <c r="B329" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C329" t="n">
         <v>58.0</v>
@@ -22831,7 +22828,7 @@
         <v>359</v>
       </c>
       <c r="B330" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C330" t="n">
         <v>380.0</v>
@@ -22851,7 +22848,7 @@
         <v>360</v>
       </c>
       <c r="B331" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C331" t="n">
         <v>17.0</v>
@@ -22871,7 +22868,7 @@
         <v>361</v>
       </c>
       <c r="B332" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C332" t="n">
         <v>10.0</v>
@@ -22891,7 +22888,7 @@
         <v>362</v>
       </c>
       <c r="B333" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C333" t="n">
         <v>398.0</v>
@@ -22911,7 +22908,7 @@
         <v>363</v>
       </c>
       <c r="B334" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C334" t="n">
         <v>47.0</v>
@@ -22931,7 +22928,7 @@
         <v>364</v>
       </c>
       <c r="B335" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C335" t="n">
         <v>382.0</v>
@@ -22951,7 +22948,7 @@
         <v>365</v>
       </c>
       <c r="B336" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C336" t="n">
         <v>385.0</v>
@@ -22971,7 +22968,7 @@
         <v>366</v>
       </c>
       <c r="B337" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C337" t="n">
         <v>13.0</v>
@@ -22991,7 +22988,7 @@
         <v>367</v>
       </c>
       <c r="B338" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C338" t="n">
         <v>103.0</v>
@@ -23011,7 +23008,7 @@
         <v>368</v>
       </c>
       <c r="B339" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C339" t="n">
         <v>348.0</v>
@@ -23031,7 +23028,7 @@
         <v>369</v>
       </c>
       <c r="B340" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C340" t="n">
         <v>331.0</v>
@@ -23051,7 +23048,7 @@
         <v>370</v>
       </c>
       <c r="B341" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C341" t="n">
         <v>139.0</v>
@@ -23071,7 +23068,7 @@
         <v>371</v>
       </c>
       <c r="B342" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C342" t="n">
         <v>429.0</v>
@@ -23091,7 +23088,7 @@
         <v>372</v>
       </c>
       <c r="B343" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C343" t="n">
         <v>263.0</v>
@@ -23111,7 +23108,7 @@
         <v>373</v>
       </c>
       <c r="B344" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C344" t="n">
         <v>245.0</v>
@@ -23131,7 +23128,7 @@
         <v>374</v>
       </c>
       <c r="B345" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C345" t="n">
         <v>457.0</v>
@@ -23151,7 +23148,7 @@
         <v>375</v>
       </c>
       <c r="B346" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C346"/>
       <c r="D346"/>
@@ -23163,7 +23160,7 @@
         <v>376</v>
       </c>
       <c r="B347" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C347" t="n">
         <v>100.0</v>
@@ -23183,7 +23180,7 @@
         <v>377</v>
       </c>
       <c r="B348" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C348" t="n">
         <v>490.0</v>
@@ -23203,7 +23200,7 @@
         <v>378</v>
       </c>
       <c r="B349" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C349" t="n">
         <v>444.0</v>
@@ -23223,7 +23220,7 @@
         <v>379</v>
       </c>
       <c r="B350" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C350" t="n">
         <v>179.0</v>
@@ -23243,7 +23240,7 @@
         <v>380</v>
       </c>
       <c r="B351" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C351" t="n">
         <v>335.0</v>
@@ -23263,7 +23260,7 @@
         <v>381</v>
       </c>
       <c r="B352" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C352" t="n">
         <v>277.0</v>
@@ -23283,7 +23280,7 @@
         <v>382</v>
       </c>
       <c r="B353" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C353" t="n">
         <v>204.0</v>
@@ -23303,7 +23300,7 @@
         <v>383</v>
       </c>
       <c r="B354" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C354" t="n">
         <v>248.0</v>
@@ -23323,7 +23320,7 @@
         <v>384</v>
       </c>
       <c r="B355" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C355" t="n">
         <v>393.0</v>
@@ -23343,7 +23340,7 @@
         <v>385</v>
       </c>
       <c r="B356" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C356" t="n">
         <v>196.0</v>
@@ -23363,7 +23360,7 @@
         <v>386</v>
       </c>
       <c r="B357" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C357" t="n">
         <v>174.0</v>
@@ -23383,7 +23380,7 @@
         <v>387</v>
       </c>
       <c r="B358" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C358" t="n">
         <v>354.0</v>
@@ -23403,7 +23400,7 @@
         <v>388</v>
       </c>
       <c r="B359" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C359" t="n">
         <v>221.0</v>
@@ -23423,7 +23420,7 @@
         <v>389</v>
       </c>
       <c r="B360" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C360" t="n">
         <v>293.0</v>
@@ -23443,7 +23440,7 @@
         <v>390</v>
       </c>
       <c r="B361" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C361"/>
       <c r="D361"/>
@@ -23455,7 +23452,7 @@
         <v>391</v>
       </c>
       <c r="B362" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C362" t="n">
         <v>182.0</v>
@@ -23475,7 +23472,7 @@
         <v>392</v>
       </c>
       <c r="B363" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C363" t="n">
         <v>119.0</v>
@@ -23495,7 +23492,7 @@
         <v>393</v>
       </c>
       <c r="B364" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C364" t="n">
         <v>102.0</v>
@@ -23515,7 +23512,7 @@
         <v>394</v>
       </c>
       <c r="B365" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C365" t="n">
         <v>436.0</v>
@@ -23535,7 +23532,7 @@
         <v>395</v>
       </c>
       <c r="B366" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C366" t="n">
         <v>45.0</v>
@@ -23555,7 +23552,7 @@
         <v>396</v>
       </c>
       <c r="B367" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C367" t="n">
         <v>51.0</v>
@@ -23575,7 +23572,7 @@
         <v>397</v>
       </c>
       <c r="B368" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C368" t="n">
         <v>352.0</v>
@@ -23595,7 +23592,7 @@
         <v>398</v>
       </c>
       <c r="B369" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C369" t="n">
         <v>114.0</v>
@@ -23615,7 +23612,7 @@
         <v>399</v>
       </c>
       <c r="B370" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C370" t="n">
         <v>325.0</v>
@@ -23635,7 +23632,7 @@
         <v>400</v>
       </c>
       <c r="B371" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C371" t="n">
         <v>93.0</v>
@@ -23655,7 +23652,7 @@
         <v>401</v>
       </c>
       <c r="B372" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C372" t="n">
         <v>168.0</v>
@@ -23675,7 +23672,7 @@
         <v>402</v>
       </c>
       <c r="B373" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C373" t="n">
         <v>258.0</v>
@@ -23695,7 +23692,7 @@
         <v>403</v>
       </c>
       <c r="B374" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C374" t="n">
         <v>50.0</v>
@@ -23715,7 +23712,7 @@
         <v>404</v>
       </c>
       <c r="B375" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C375" t="n">
         <v>416.0</v>
@@ -23735,7 +23732,7 @@
         <v>405</v>
       </c>
       <c r="B376" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C376" t="n">
         <v>415.0</v>
@@ -23755,7 +23752,7 @@
         <v>406</v>
       </c>
       <c r="B377" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C377" t="n">
         <v>336.0</v>
@@ -23775,7 +23772,7 @@
         <v>407</v>
       </c>
       <c r="B378" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C378" t="n">
         <v>145.0</v>
@@ -23795,7 +23792,7 @@
         <v>408</v>
       </c>
       <c r="B379" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C379" t="n">
         <v>76.0</v>
@@ -23815,7 +23812,7 @@
         <v>409</v>
       </c>
       <c r="B380" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C380" t="n">
         <v>99.0</v>
@@ -23835,7 +23832,7 @@
         <v>410</v>
       </c>
       <c r="B381" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C381" t="n">
         <v>123.0</v>
@@ -23855,7 +23852,7 @@
         <v>411</v>
       </c>
       <c r="B382" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C382" t="n">
         <v>279.0</v>
@@ -23875,7 +23872,7 @@
         <v>412</v>
       </c>
       <c r="B383" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C383" t="n">
         <v>478.0</v>
@@ -23895,7 +23892,7 @@
         <v>413</v>
       </c>
       <c r="B384" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C384" t="n">
         <v>491.0</v>
@@ -23915,7 +23912,7 @@
         <v>414</v>
       </c>
       <c r="B385" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C385" t="n">
         <v>451.0</v>
@@ -23935,7 +23932,7 @@
         <v>415</v>
       </c>
       <c r="B386" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C386" t="n">
         <v>508.0</v>
@@ -23955,7 +23952,7 @@
         <v>416</v>
       </c>
       <c r="B387" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C387" t="n">
         <v>468.0</v>
@@ -23975,7 +23972,7 @@
         <v>417</v>
       </c>
       <c r="B388" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C388" t="n">
         <v>502.0</v>
@@ -23995,7 +23992,7 @@
         <v>418</v>
       </c>
       <c r="B389" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C389" t="n">
         <v>186.0</v>
@@ -24015,7 +24012,7 @@
         <v>419</v>
       </c>
       <c r="B390" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C390" t="n">
         <v>422.0</v>
@@ -24035,7 +24032,7 @@
         <v>420</v>
       </c>
       <c r="B391" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C391" t="n">
         <v>446.0</v>
@@ -24055,7 +24052,7 @@
         <v>421</v>
       </c>
       <c r="B392" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C392" t="n">
         <v>282.0</v>
@@ -24075,7 +24072,7 @@
         <v>422</v>
       </c>
       <c r="B393" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C393" t="n">
         <v>146.0</v>
@@ -24095,7 +24092,7 @@
         <v>423</v>
       </c>
       <c r="B394" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C394" t="n">
         <v>353.0</v>
@@ -24115,7 +24112,7 @@
         <v>424</v>
       </c>
       <c r="B395" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C395" t="n">
         <v>197.0</v>
@@ -24135,7 +24132,7 @@
         <v>425</v>
       </c>
       <c r="B396" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C396" t="n">
         <v>2.0</v>
@@ -24155,7 +24152,7 @@
         <v>426</v>
       </c>
       <c r="B397" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C397" t="n">
         <v>12.0</v>
@@ -24175,7 +24172,7 @@
         <v>427</v>
       </c>
       <c r="B398" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C398" t="n">
         <v>132.0</v>
@@ -24195,7 +24192,7 @@
         <v>428</v>
       </c>
       <c r="B399" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C399" t="n">
         <v>4.0</v>
@@ -24215,7 +24212,7 @@
         <v>429</v>
       </c>
       <c r="B400" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C400" t="n">
         <v>6.0</v>
@@ -24235,7 +24232,7 @@
         <v>430</v>
       </c>
       <c r="B401" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C401" t="n">
         <v>120.0</v>
@@ -24255,7 +24252,7 @@
         <v>431</v>
       </c>
       <c r="B402" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C402" t="n">
         <v>44.0</v>
@@ -24275,7 +24272,7 @@
         <v>432</v>
       </c>
       <c r="B403" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C403" t="n">
         <v>5.0</v>
@@ -24295,7 +24292,7 @@
         <v>433</v>
       </c>
       <c r="B404" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C404" t="n">
         <v>428.0</v>
@@ -24315,7 +24312,7 @@
         <v>434</v>
       </c>
       <c r="B405" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C405" t="n">
         <v>7.0</v>
@@ -24335,7 +24332,7 @@
         <v>435</v>
       </c>
       <c r="B406" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C406" t="n">
         <v>222.0</v>
@@ -24355,7 +24352,7 @@
         <v>436</v>
       </c>
       <c r="B407" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C407" t="n">
         <v>87.0</v>
@@ -24375,7 +24372,7 @@
         <v>437</v>
       </c>
       <c r="B408" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C408" t="n">
         <v>177.0</v>
@@ -24395,7 +24392,7 @@
         <v>438</v>
       </c>
       <c r="B409" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C409" t="n">
         <v>169.0</v>
@@ -24415,7 +24412,7 @@
         <v>439</v>
       </c>
       <c r="B410" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C410" t="n">
         <v>137.0</v>
@@ -24435,7 +24432,7 @@
         <v>440</v>
       </c>
       <c r="B411" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C411" t="n">
         <v>84.0</v>
@@ -24455,7 +24452,7 @@
         <v>441</v>
       </c>
       <c r="B412" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C412" t="n">
         <v>78.0</v>
@@ -24475,7 +24472,7 @@
         <v>442</v>
       </c>
       <c r="B413" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C413" t="n">
         <v>223.0</v>
@@ -24495,7 +24492,7 @@
         <v>443</v>
       </c>
       <c r="B414" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C414" t="n">
         <v>372.0</v>
@@ -24515,7 +24512,7 @@
         <v>444</v>
       </c>
       <c r="B415" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C415" t="n">
         <v>445.0</v>
@@ -24535,7 +24532,7 @@
         <v>445</v>
       </c>
       <c r="B416" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C416" t="n">
         <v>350.0</v>
@@ -24555,7 +24552,7 @@
         <v>446</v>
       </c>
       <c r="B417" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C417" t="n">
         <v>252.0</v>
@@ -24575,7 +24572,7 @@
         <v>447</v>
       </c>
       <c r="B418" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C418" t="n">
         <v>224.0</v>
@@ -24595,7 +24592,7 @@
         <v>448</v>
       </c>
       <c r="B419" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C419" t="n">
         <v>270.0</v>
@@ -24615,7 +24612,7 @@
         <v>449</v>
       </c>
       <c r="B420" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C420" t="n">
         <v>52.0</v>
@@ -24635,7 +24632,7 @@
         <v>450</v>
       </c>
       <c r="B421" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C421" t="n">
         <v>294.0</v>
@@ -24655,7 +24652,7 @@
         <v>451</v>
       </c>
       <c r="B422" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C422" t="n">
         <v>261.0</v>
@@ -24675,7 +24672,7 @@
         <v>452</v>
       </c>
       <c r="B423" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C423" t="n">
         <v>208.0</v>
@@ -24695,7 +24692,7 @@
         <v>453</v>
       </c>
       <c r="B424" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C424" t="n">
         <v>296.0</v>
@@ -24715,7 +24712,7 @@
         <v>454</v>
       </c>
       <c r="B425" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C425" t="n">
         <v>260.0</v>
@@ -24735,7 +24732,7 @@
         <v>455</v>
       </c>
       <c r="B426" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C426" t="n">
         <v>271.0</v>
@@ -24755,7 +24752,7 @@
         <v>456</v>
       </c>
       <c r="B427" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C427" t="n">
         <v>234.0</v>
@@ -24775,7 +24772,7 @@
         <v>457</v>
       </c>
       <c r="B428" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C428" t="n">
         <v>158.0</v>
@@ -24795,7 +24792,7 @@
         <v>458</v>
       </c>
       <c r="B429" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C429" t="n">
         <v>237.0</v>
@@ -24815,7 +24812,7 @@
         <v>459</v>
       </c>
       <c r="B430" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C430" t="n">
         <v>265.0</v>
@@ -24835,7 +24832,7 @@
         <v>460</v>
       </c>
       <c r="B431" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C431" t="n">
         <v>339.0</v>
@@ -24855,7 +24852,7 @@
         <v>461</v>
       </c>
       <c r="B432" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C432" t="n">
         <v>227.0</v>
@@ -24875,7 +24872,7 @@
         <v>462</v>
       </c>
       <c r="B433" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C433" t="n">
         <v>130.0</v>
@@ -24895,7 +24892,7 @@
         <v>463</v>
       </c>
       <c r="B434" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C434" t="n">
         <v>230.0</v>
@@ -24915,7 +24912,7 @@
         <v>464</v>
       </c>
       <c r="B435" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C435" t="n">
         <v>344.0</v>
@@ -24935,7 +24932,7 @@
         <v>465</v>
       </c>
       <c r="B436" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C436" t="n">
         <v>272.0</v>
@@ -24955,7 +24952,7 @@
         <v>466</v>
       </c>
       <c r="B437" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C437" t="n">
         <v>397.0</v>
@@ -24975,7 +24972,7 @@
         <v>467</v>
       </c>
       <c r="B438" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C438" t="n">
         <v>301.0</v>
@@ -24995,7 +24992,7 @@
         <v>468</v>
       </c>
       <c r="B439" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C439" t="n">
         <v>150.0</v>
@@ -25015,7 +25012,7 @@
         <v>469</v>
       </c>
       <c r="B440" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C440" t="n">
         <v>172.0</v>
@@ -25035,7 +25032,7 @@
         <v>470</v>
       </c>
       <c r="B441" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C441" t="n">
         <v>229.0</v>
@@ -25055,7 +25052,7 @@
         <v>471</v>
       </c>
       <c r="B442" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C442" t="n">
         <v>246.0</v>
@@ -25075,7 +25072,7 @@
         <v>472</v>
       </c>
       <c r="B443" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C443" t="n">
         <v>267.0</v>
@@ -25095,7 +25092,7 @@
         <v>473</v>
       </c>
       <c r="B444" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C444" t="n">
         <v>240.0</v>
@@ -25115,7 +25112,7 @@
         <v>474</v>
       </c>
       <c r="B445" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C445" t="n">
         <v>318.0</v>
@@ -25135,7 +25132,7 @@
         <v>475</v>
       </c>
       <c r="B446" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C446" t="n">
         <v>425.0</v>
@@ -25155,7 +25152,7 @@
         <v>476</v>
       </c>
       <c r="B447" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C447" t="n">
         <v>180.0</v>
@@ -25175,7 +25172,7 @@
         <v>477</v>
       </c>
       <c r="B448" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C448" t="n">
         <v>104.0</v>
@@ -25195,7 +25192,7 @@
         <v>478</v>
       </c>
       <c r="B449" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C449" t="n">
         <v>49.0</v>
@@ -25215,7 +25212,7 @@
         <v>479</v>
       </c>
       <c r="B450" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C450" t="n">
         <v>329.0</v>
@@ -25235,7 +25232,7 @@
         <v>480</v>
       </c>
       <c r="B451" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C451" t="n">
         <v>467.0</v>
@@ -25255,7 +25252,7 @@
         <v>481</v>
       </c>
       <c r="B452" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C452" t="n">
         <v>233.0</v>
@@ -25275,7 +25272,7 @@
         <v>482</v>
       </c>
       <c r="B453" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C453" t="n">
         <v>479.0</v>
@@ -25295,7 +25292,7 @@
         <v>483</v>
       </c>
       <c r="B454" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C454" t="n">
         <v>72.0</v>
@@ -25315,7 +25312,7 @@
         <v>484</v>
       </c>
       <c r="B455" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C455" t="n">
         <v>70.0</v>
@@ -25335,7 +25332,7 @@
         <v>485</v>
       </c>
       <c r="B456" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C456" t="n">
         <v>381.0</v>
@@ -25355,7 +25352,7 @@
         <v>486</v>
       </c>
       <c r="B457" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C457" t="n">
         <v>131.0</v>
@@ -25375,7 +25372,7 @@
         <v>487</v>
       </c>
       <c r="B458" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C458" t="n">
         <v>332.0</v>
@@ -25395,7 +25392,7 @@
         <v>488</v>
       </c>
       <c r="B459" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C459" t="n">
         <v>400.0</v>
@@ -25415,7 +25412,7 @@
         <v>489</v>
       </c>
       <c r="B460" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C460" t="n">
         <v>65.0</v>
@@ -25435,7 +25432,7 @@
         <v>490</v>
       </c>
       <c r="B461" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C461" t="n">
         <v>118.0</v>
@@ -25455,7 +25452,7 @@
         <v>491</v>
       </c>
       <c r="B462" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C462" t="n">
         <v>185.0</v>
@@ -25475,7 +25472,7 @@
         <v>492</v>
       </c>
       <c r="B463" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C463" t="n">
         <v>86.0</v>
@@ -25495,7 +25492,7 @@
         <v>493</v>
       </c>
       <c r="B464" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C464" t="n">
         <v>162.0</v>
@@ -25515,7 +25512,7 @@
         <v>494</v>
       </c>
       <c r="B465" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C465" t="n">
         <v>81.0</v>
@@ -25535,7 +25532,7 @@
         <v>495</v>
       </c>
       <c r="B466" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C466" t="n">
         <v>217.0</v>
@@ -25555,7 +25552,7 @@
         <v>496</v>
       </c>
       <c r="B467" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C467" t="n">
         <v>3.0</v>
@@ -25575,7 +25572,7 @@
         <v>497</v>
       </c>
       <c r="B468" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C468" t="n">
         <v>190.0</v>
@@ -25595,7 +25592,7 @@
         <v>498</v>
       </c>
       <c r="B469" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C469" t="n">
         <v>489.0</v>
@@ -25615,7 +25612,7 @@
         <v>499</v>
       </c>
       <c r="B470" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C470" t="n">
         <v>357.0</v>
@@ -25635,7 +25632,7 @@
         <v>500</v>
       </c>
       <c r="B471" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C471" t="n">
         <v>466.0</v>
@@ -25655,7 +25652,7 @@
         <v>501</v>
       </c>
       <c r="B472" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C472" t="n">
         <v>144.0</v>
@@ -25675,7 +25672,7 @@
         <v>502</v>
       </c>
       <c r="B473" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C473" t="n">
         <v>202.0</v>
@@ -25695,7 +25692,7 @@
         <v>503</v>
       </c>
       <c r="B474" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C474" t="n">
         <v>374.0</v>
@@ -25715,7 +25712,7 @@
         <v>504</v>
       </c>
       <c r="B475" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C475" t="n">
         <v>473.0</v>
@@ -25735,7 +25732,7 @@
         <v>505</v>
       </c>
       <c r="B476" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C476" t="n">
         <v>54.0</v>
@@ -25755,7 +25752,7 @@
         <v>506</v>
       </c>
       <c r="B477" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C477" t="n">
         <v>107.0</v>
@@ -25775,7 +25772,7 @@
         <v>507</v>
       </c>
       <c r="B478" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C478" t="n">
         <v>94.0</v>
@@ -25795,7 +25792,7 @@
         <v>508</v>
       </c>
       <c r="B479" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C479" t="n">
         <v>160.0</v>
@@ -25815,7 +25812,7 @@
         <v>509</v>
       </c>
       <c r="B480" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C480" t="n">
         <v>147.0</v>
@@ -25835,7 +25832,7 @@
         <v>510</v>
       </c>
       <c r="B481" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C481" t="n">
         <v>170.0</v>
@@ -25855,7 +25852,7 @@
         <v>511</v>
       </c>
       <c r="B482" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C482" t="n">
         <v>117.0</v>
@@ -25875,7 +25872,7 @@
         <v>512</v>
       </c>
       <c r="B483" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C483" t="n">
         <v>404.0</v>
@@ -25895,7 +25892,7 @@
         <v>513</v>
       </c>
       <c r="B484" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C484" t="n">
         <v>142.0</v>
@@ -25915,7 +25912,7 @@
         <v>514</v>
       </c>
       <c r="B485" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C485" t="n">
         <v>389.0</v>
@@ -25935,7 +25932,7 @@
         <v>515</v>
       </c>
       <c r="B486" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C486" t="n">
         <v>235.0</v>
@@ -25955,7 +25952,7 @@
         <v>516</v>
       </c>
       <c r="B487" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C487" t="n">
         <v>203.0</v>
@@ -25975,7 +25972,7 @@
         <v>517</v>
       </c>
       <c r="B488" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C488" t="n">
         <v>408.0</v>
@@ -25995,7 +25992,7 @@
         <v>518</v>
       </c>
       <c r="B489" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C489" t="n">
         <v>198.0</v>
@@ -26015,7 +26012,7 @@
         <v>519</v>
       </c>
       <c r="B490" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C490" t="n">
         <v>290.0</v>
@@ -26035,7 +26032,7 @@
         <v>520</v>
       </c>
       <c r="B491" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C491" t="n">
         <v>387.0</v>
@@ -26055,7 +26052,7 @@
         <v>521</v>
       </c>
       <c r="B492" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C492" t="n">
         <v>141.0</v>
@@ -26075,7 +26072,7 @@
         <v>522</v>
       </c>
       <c r="B493" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C493" t="n">
         <v>71.0</v>
@@ -26095,7 +26092,7 @@
         <v>523</v>
       </c>
       <c r="B494" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C494" t="n">
         <v>164.0</v>
@@ -26115,7 +26112,7 @@
         <v>524</v>
       </c>
       <c r="B495" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C495" t="n">
         <v>220.0</v>
@@ -26135,7 +26132,7 @@
         <v>525</v>
       </c>
       <c r="B496" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C496" t="n">
         <v>16.0</v>
@@ -26155,7 +26152,7 @@
         <v>526</v>
       </c>
       <c r="B497" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C497" t="n">
         <v>143.0</v>
@@ -26175,7 +26172,7 @@
         <v>527</v>
       </c>
       <c r="B498" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C498" t="n">
         <v>83.0</v>
@@ -26195,7 +26192,7 @@
         <v>528</v>
       </c>
       <c r="B499" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C499" t="n">
         <v>127.0</v>
@@ -26215,7 +26212,7 @@
         <v>529</v>
       </c>
       <c r="B500" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C500" t="n">
         <v>79.0</v>
@@ -26235,7 +26232,7 @@
         <v>530</v>
       </c>
       <c r="B501" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C501" t="n">
         <v>96.0</v>
@@ -26255,7 +26252,7 @@
         <v>531</v>
       </c>
       <c r="B502" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C502" t="n">
         <v>42.0</v>
@@ -26275,7 +26272,7 @@
         <v>532</v>
       </c>
       <c r="B503" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C503" t="n">
         <v>39.0</v>
@@ -26295,7 +26292,7 @@
         <v>533</v>
       </c>
       <c r="B504" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C504" t="n">
         <v>74.0</v>
@@ -26315,7 +26312,7 @@
         <v>534</v>
       </c>
       <c r="B505" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C505" t="n">
         <v>29.0</v>
@@ -26335,7 +26332,7 @@
         <v>535</v>
       </c>
       <c r="B506" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C506" t="n">
         <v>109.0</v>
@@ -26355,7 +26352,7 @@
         <v>536</v>
       </c>
       <c r="B507" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C507" t="n">
         <v>21.0</v>
@@ -26375,7 +26372,7 @@
         <v>537</v>
       </c>
       <c r="B508" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C508" t="n">
         <v>216.0</v>
@@ -26395,7 +26392,7 @@
         <v>538</v>
       </c>
       <c r="B509" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C509" t="n">
         <v>73.0</v>
@@ -26415,7 +26412,7 @@
         <v>539</v>
       </c>
       <c r="B510" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C510" t="n">
         <v>30.0</v>
@@ -26435,7 +26432,7 @@
         <v>540</v>
       </c>
       <c r="B511" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C511"/>
       <c r="D511"/>
@@ -26447,7 +26444,7 @@
         <v>541</v>
       </c>
       <c r="B512" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C512" t="n">
         <v>40.0</v>
@@ -26467,7 +26464,7 @@
         <v>542</v>
       </c>
       <c r="B513" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C513" t="n">
         <v>36.0</v>
@@ -26487,7 +26484,7 @@
         <v>543</v>
       </c>
       <c r="B514" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C514" t="n">
         <v>151.0</v>
@@ -26507,7 +26504,7 @@
         <v>544</v>
       </c>
       <c r="B515" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C515" t="n">
         <v>115.0</v>
@@ -26527,7 +26524,7 @@
         <v>545</v>
       </c>
       <c r="B516" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C516" t="n">
         <v>75.0</v>
@@ -26547,7 +26544,7 @@
         <v>546</v>
       </c>
       <c r="B517" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C517" t="n">
         <v>98.0</v>
@@ -26567,7 +26564,7 @@
         <v>547</v>
       </c>
       <c r="B518" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C518" t="n">
         <v>302.0</v>
@@ -26587,7 +26584,7 @@
         <v>548</v>
       </c>
       <c r="B519" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C519" t="n">
         <v>55.0</v>
@@ -26607,7 +26604,7 @@
         <v>549</v>
       </c>
       <c r="B520" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C520" t="n">
         <v>57.0</v>
@@ -26627,7 +26624,7 @@
         <v>550</v>
       </c>
       <c r="B521" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C521" t="n">
         <v>41.0</v>
@@ -26647,7 +26644,7 @@
         <v>551</v>
       </c>
       <c r="B522" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C522" t="n">
         <v>67.0</v>
@@ -26667,7 +26664,7 @@
         <v>552</v>
       </c>
       <c r="B523" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C523" t="n">
         <v>43.0</v>
@@ -26687,7 +26684,7 @@
         <v>553</v>
       </c>
       <c r="B524" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C524" t="n">
         <v>33.0</v>
@@ -26707,7 +26704,7 @@
         <v>554</v>
       </c>
       <c r="B525" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C525" t="n">
         <v>32.0</v>
@@ -26727,7 +26724,7 @@
         <v>555</v>
       </c>
       <c r="B526" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C526" t="n">
         <v>53.0</v>
@@ -26747,7 +26744,7 @@
         <v>556</v>
       </c>
       <c r="B527" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C527" t="n">
         <v>228.0</v>
@@ -26780,10 +26777,10 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" t="s">
         <v>575</v>
-      </c>
-      <c r="C1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="2">
@@ -26794,7 +26791,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3">
@@ -26805,7 +26802,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4">
@@ -26816,7 +26813,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5">
@@ -26827,7 +26824,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6">
@@ -26838,7 +26835,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7">
@@ -26849,7 +26846,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8">
@@ -26860,7 +26857,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9">
@@ -26871,7 +26868,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
@@ -26882,7 +26879,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11">
@@ -26893,7 +26890,7 @@
         <v>2.0</v>
       </c>
       <c r="C11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12">
@@ -26904,7 +26901,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13">
@@ -26915,7 +26912,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14">
@@ -26926,7 +26923,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15">
@@ -26937,7 +26934,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16">
@@ -26948,7 +26945,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17">
@@ -26959,7 +26956,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18">
@@ -26970,7 +26967,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19">
@@ -26981,7 +26978,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20">
@@ -26992,7 +26989,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21">
@@ -27003,7 +27000,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22">
@@ -27014,7 +27011,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23">
@@ -27025,7 +27022,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24">
@@ -27036,7 +27033,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25">
@@ -27047,7 +27044,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26">
@@ -27058,7 +27055,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27">
@@ -27069,7 +27066,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28">
@@ -27080,7 +27077,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29">
@@ -27091,7 +27088,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30">
@@ -27102,7 +27099,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31">
@@ -27113,7 +27110,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32">
@@ -27124,7 +27121,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33">
@@ -27135,7 +27132,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34">
@@ -27146,7 +27143,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35">
@@ -27157,7 +27154,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36">
@@ -27168,7 +27165,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37">
@@ -27179,7 +27176,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38">
@@ -27190,7 +27187,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39">
@@ -27201,7 +27198,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40">
@@ -27212,7 +27209,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41">
@@ -27223,7 +27220,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42">
@@ -27234,7 +27231,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43">
@@ -27245,7 +27242,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44">
@@ -27256,7 +27253,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45">
@@ -27267,7 +27264,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46">
@@ -27278,7 +27275,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47">
@@ -27289,7 +27286,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48">
@@ -27300,7 +27297,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="49">
@@ -27311,7 +27308,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50">
@@ -27322,7 +27319,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51">
@@ -27333,7 +27330,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52">
@@ -27344,7 +27341,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53">
@@ -27355,7 +27352,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54">
@@ -27366,7 +27363,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55">
@@ -27377,7 +27374,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56">
@@ -27388,7 +27385,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="57">
@@ -27399,7 +27396,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58">
@@ -27410,7 +27407,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59">
@@ -27421,7 +27418,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60">
@@ -27432,7 +27429,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61">
@@ -27443,7 +27440,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62">
@@ -27454,7 +27451,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63">
@@ -27465,7 +27462,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64">
@@ -27476,7 +27473,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65">
@@ -27487,7 +27484,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66">
@@ -27498,7 +27495,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67">
@@ -27509,7 +27506,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68">
@@ -27520,7 +27517,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69">
@@ -27531,7 +27528,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70">
@@ -27542,7 +27539,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="71">
@@ -27553,7 +27550,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="72">
@@ -27564,7 +27561,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="73">
@@ -27575,7 +27572,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="74">
@@ -27586,7 +27583,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75">
@@ -27597,7 +27594,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76">
@@ -27608,7 +27605,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77">
@@ -27619,7 +27616,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="78">
@@ -27630,7 +27627,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79">
@@ -27641,7 +27638,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="80">
@@ -27652,7 +27649,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81">
@@ -27663,7 +27660,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="82">
@@ -27674,7 +27671,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="83">
@@ -27685,7 +27682,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="84">
@@ -27696,7 +27693,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="85">
@@ -27707,7 +27704,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="86">
@@ -27718,7 +27715,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87">
@@ -27729,7 +27726,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="88">
@@ -27740,7 +27737,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89">
@@ -27751,7 +27748,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90">
@@ -27762,7 +27759,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="91">
@@ -27773,7 +27770,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92">
@@ -27784,7 +27781,7 @@
         <v>0.0</v>
       </c>
       <c r="C92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93">
@@ -27795,7 +27792,7 @@
         <v>0.0</v>
       </c>
       <c r="C93" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94">
@@ -27806,7 +27803,7 @@
         <v>0.0</v>
       </c>
       <c r="C94" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95">
@@ -27817,7 +27814,7 @@
         <v>0.0</v>
       </c>
       <c r="C95" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96">
@@ -27828,7 +27825,7 @@
         <v>0.0</v>
       </c>
       <c r="C96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97">
@@ -27839,7 +27836,7 @@
         <v>0.0</v>
       </c>
       <c r="C97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="98">
@@ -27850,7 +27847,7 @@
         <v>0.0</v>
       </c>
       <c r="C98" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99">
@@ -27861,7 +27858,7 @@
         <v>0.0</v>
       </c>
       <c r="C99" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100">
@@ -27872,7 +27869,7 @@
         <v>1.0</v>
       </c>
       <c r="C100" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101">
@@ -27883,7 +27880,7 @@
         <v>0.0</v>
       </c>
       <c r="C101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102">
@@ -27894,7 +27891,7 @@
         <v>0.0</v>
       </c>
       <c r="C102" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103">
@@ -27905,7 +27902,7 @@
         <v>0.0</v>
       </c>
       <c r="C103" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="104">
@@ -27916,7 +27913,7 @@
         <v>0.0</v>
       </c>
       <c r="C104" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="105">
@@ -27927,7 +27924,7 @@
         <v>0.0</v>
       </c>
       <c r="C105" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="106">
@@ -27938,7 +27935,7 @@
         <v>0.0</v>
       </c>
       <c r="C106" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="107">
@@ -27949,7 +27946,7 @@
         <v>0.0</v>
       </c>
       <c r="C107" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="108">
@@ -27960,7 +27957,7 @@
         <v>0.0</v>
       </c>
       <c r="C108" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="109">
@@ -27971,7 +27968,7 @@
         <v>0.0</v>
       </c>
       <c r="C109" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="110">
@@ -27982,7 +27979,7 @@
         <v>0.0</v>
       </c>
       <c r="C110" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="111">
@@ -27993,7 +27990,7 @@
         <v>0.0</v>
       </c>
       <c r="C111" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="112">
@@ -28004,7 +28001,7 @@
         <v>0.0</v>
       </c>
       <c r="C112" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="113">
@@ -28015,7 +28012,7 @@
         <v>0.0</v>
       </c>
       <c r="C113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="114">
@@ -28026,7 +28023,7 @@
         <v>0.0</v>
       </c>
       <c r="C114" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="115">
@@ -28037,7 +28034,7 @@
         <v>0.0</v>
       </c>
       <c r="C115" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="116">
@@ -28048,7 +28045,7 @@
         <v>0.0</v>
       </c>
       <c r="C116" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="117">
@@ -28059,7 +28056,7 @@
         <v>0.0</v>
       </c>
       <c r="C117" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="118">
@@ -28070,7 +28067,7 @@
         <v>0.0</v>
       </c>
       <c r="C118" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119">
@@ -28081,7 +28078,7 @@
         <v>0.0</v>
       </c>
       <c r="C119" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120">
@@ -28092,7 +28089,7 @@
         <v>0.0</v>
       </c>
       <c r="C120" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="121">
@@ -28103,7 +28100,7 @@
         <v>0.0</v>
       </c>
       <c r="C121" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122">
@@ -28114,7 +28111,7 @@
         <v>0.0</v>
       </c>
       <c r="C122" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123">
@@ -28125,7 +28122,7 @@
         <v>0.0</v>
       </c>
       <c r="C123" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="124">
@@ -28136,7 +28133,7 @@
         <v>0.0</v>
       </c>
       <c r="C124" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125">
@@ -28147,7 +28144,7 @@
         <v>0.0</v>
       </c>
       <c r="C125" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126">
@@ -28158,7 +28155,7 @@
         <v>0.0</v>
       </c>
       <c r="C126" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="127">
@@ -28169,7 +28166,7 @@
         <v>0.0</v>
       </c>
       <c r="C127" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="128">
@@ -28180,7 +28177,7 @@
         <v>0.0</v>
       </c>
       <c r="C128" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="129">
@@ -28191,7 +28188,7 @@
         <v>0.0</v>
       </c>
       <c r="C129" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="130">
@@ -28202,7 +28199,7 @@
         <v>0.0</v>
       </c>
       <c r="C130" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131">
@@ -28213,7 +28210,7 @@
         <v>0.0</v>
       </c>
       <c r="C131" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="132">
@@ -28224,7 +28221,7 @@
         <v>0.0</v>
       </c>
       <c r="C132" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="133">
@@ -28235,7 +28232,7 @@
         <v>0.0</v>
       </c>
       <c r="C133" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="134">
@@ -28246,7 +28243,7 @@
         <v>0.0</v>
       </c>
       <c r="C134" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="135">
@@ -28257,7 +28254,7 @@
         <v>0.0</v>
       </c>
       <c r="C135" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="136">
@@ -28268,7 +28265,7 @@
         <v>0.0</v>
       </c>
       <c r="C136" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="137">
@@ -28279,7 +28276,7 @@
         <v>0.0</v>
       </c>
       <c r="C137" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="138">
@@ -28290,7 +28287,7 @@
         <v>0.0</v>
       </c>
       <c r="C138" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="139">
@@ -28301,7 +28298,7 @@
         <v>2.0</v>
       </c>
       <c r="C139" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="140">
@@ -28312,7 +28309,7 @@
         <v>2.0</v>
       </c>
       <c r="C140" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="141">
@@ -28323,7 +28320,7 @@
         <v>2.0</v>
       </c>
       <c r="C141" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="142">
@@ -28334,7 +28331,7 @@
         <v>2.0</v>
       </c>
       <c r="C142" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="143">
@@ -28345,7 +28342,7 @@
         <v>2.0</v>
       </c>
       <c r="C143" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="144">
@@ -28356,7 +28353,7 @@
         <v>2.0</v>
       </c>
       <c r="C144" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="145">
@@ -28367,7 +28364,7 @@
         <v>2.0</v>
       </c>
       <c r="C145" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="146">
@@ -28378,7 +28375,7 @@
         <v>2.0</v>
       </c>
       <c r="C146" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="147">
@@ -28389,7 +28386,7 @@
         <v>2.0</v>
       </c>
       <c r="C147" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="148">
@@ -28400,7 +28397,7 @@
         <v>2.0</v>
       </c>
       <c r="C148" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="149">
@@ -28411,7 +28408,7 @@
         <v>2.0</v>
       </c>
       <c r="C149" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="150">
@@ -28422,7 +28419,7 @@
         <v>2.0</v>
       </c>
       <c r="C150" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="151">
@@ -28433,7 +28430,7 @@
         <v>2.0</v>
       </c>
       <c r="C151" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="152">
@@ -28444,7 +28441,7 @@
         <v>2.0</v>
       </c>
       <c r="C152" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="153">
@@ -28455,7 +28452,7 @@
         <v>2.0</v>
       </c>
       <c r="C153" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="154">
@@ -28466,7 +28463,7 @@
         <v>2.0</v>
       </c>
       <c r="C154" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="155">
@@ -28477,7 +28474,7 @@
         <v>2.0</v>
       </c>
       <c r="C155" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156">
@@ -28488,7 +28485,7 @@
         <v>2.0</v>
       </c>
       <c r="C156" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="157">
@@ -28499,7 +28496,7 @@
         <v>2.0</v>
       </c>
       <c r="C157" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="158">
@@ -28510,7 +28507,7 @@
         <v>2.0</v>
       </c>
       <c r="C158" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159">
@@ -28521,7 +28518,7 @@
         <v>2.0</v>
       </c>
       <c r="C159" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160">
@@ -28532,7 +28529,7 @@
         <v>2.0</v>
       </c>
       <c r="C160" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="161">
@@ -28543,7 +28540,7 @@
         <v>2.0</v>
       </c>
       <c r="C161" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="162">
@@ -28554,7 +28551,7 @@
         <v>2.0</v>
       </c>
       <c r="C162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163">
@@ -28565,7 +28562,7 @@
         <v>2.0</v>
       </c>
       <c r="C163" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="164">
@@ -28576,7 +28573,7 @@
         <v>2.0</v>
       </c>
       <c r="C164" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="165">
@@ -28587,7 +28584,7 @@
         <v>2.0</v>
       </c>
       <c r="C165" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="166">
@@ -28598,7 +28595,7 @@
         <v>2.0</v>
       </c>
       <c r="C166" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="167">
@@ -28609,7 +28606,7 @@
         <v>2.0</v>
       </c>
       <c r="C167" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="168">
@@ -28620,7 +28617,7 @@
         <v>2.0</v>
       </c>
       <c r="C168" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169">
@@ -28631,7 +28628,7 @@
         <v>2.0</v>
       </c>
       <c r="C169" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="170">
@@ -28642,7 +28639,7 @@
         <v>2.0</v>
       </c>
       <c r="C170" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="171">
@@ -28653,7 +28650,7 @@
         <v>2.0</v>
       </c>
       <c r="C171" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="172">
@@ -28664,7 +28661,7 @@
         <v>3.0</v>
       </c>
       <c r="C172" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173">
@@ -28675,7 +28672,7 @@
         <v>2.0</v>
       </c>
       <c r="C173" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="174">
@@ -28686,7 +28683,7 @@
         <v>2.0</v>
       </c>
       <c r="C174" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="175">
@@ -28697,7 +28694,7 @@
         <v>2.0</v>
       </c>
       <c r="C175" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="176">
@@ -28708,7 +28705,7 @@
         <v>2.0</v>
       </c>
       <c r="C176" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="177">
@@ -28719,7 +28716,7 @@
         <v>2.0</v>
       </c>
       <c r="C177" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="178">
@@ -28730,7 +28727,7 @@
         <v>3.0</v>
       </c>
       <c r="C178" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179">
@@ -28741,7 +28738,7 @@
         <v>2.0</v>
       </c>
       <c r="C179" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180">
@@ -28752,7 +28749,7 @@
         <v>1.0</v>
       </c>
       <c r="C180" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181">
@@ -28763,7 +28760,7 @@
         <v>1.0</v>
       </c>
       <c r="C181" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="182">
@@ -28774,7 +28771,7 @@
         <v>2.0</v>
       </c>
       <c r="C182" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183">
@@ -28785,7 +28782,7 @@
         <v>1.0</v>
       </c>
       <c r="C183" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="184">
@@ -28796,7 +28793,7 @@
         <v>1.0</v>
       </c>
       <c r="C184" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="185">
@@ -28807,7 +28804,7 @@
         <v>1.0</v>
       </c>
       <c r="C185" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186">
@@ -28818,7 +28815,7 @@
         <v>1.0</v>
       </c>
       <c r="C186" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187">
@@ -28829,7 +28826,7 @@
         <v>1.0</v>
       </c>
       <c r="C187" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="188">
@@ -28840,7 +28837,7 @@
         <v>2.0</v>
       </c>
       <c r="C188" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189">
@@ -28851,7 +28848,7 @@
         <v>2.0</v>
       </c>
       <c r="C189" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="190">
@@ -28862,7 +28859,7 @@
         <v>1.0</v>
       </c>
       <c r="C190" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191">
@@ -28873,7 +28870,7 @@
         <v>2.0</v>
       </c>
       <c r="C191" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="192">
@@ -28884,7 +28881,7 @@
         <v>3.0</v>
       </c>
       <c r="C192" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193">
@@ -28895,7 +28892,7 @@
         <v>2.0</v>
       </c>
       <c r="C193" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="194">
@@ -28906,7 +28903,7 @@
         <v>2.0</v>
       </c>
       <c r="C194" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195">
@@ -28917,7 +28914,7 @@
         <v>2.0</v>
       </c>
       <c r="C195" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="196">
@@ -28928,7 +28925,7 @@
         <v>2.0</v>
       </c>
       <c r="C196" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="197">
@@ -28939,7 +28936,7 @@
         <v>1.0</v>
       </c>
       <c r="C197" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="198">
@@ -28950,7 +28947,7 @@
         <v>1.0</v>
       </c>
       <c r="C198" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="199">
@@ -28961,7 +28958,7 @@
         <v>1.0</v>
       </c>
       <c r="C199" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="200">
@@ -28972,7 +28969,7 @@
         <v>1.0</v>
       </c>
       <c r="C200" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="201">
@@ -28983,7 +28980,7 @@
         <v>1.0</v>
       </c>
       <c r="C201" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="202">
@@ -28994,7 +28991,7 @@
         <v>1.0</v>
       </c>
       <c r="C202" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="203">
@@ -29005,7 +29002,7 @@
         <v>1.0</v>
       </c>
       <c r="C203" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="204">
@@ -29016,7 +29013,7 @@
         <v>1.0</v>
       </c>
       <c r="C204" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="205">
@@ -29027,7 +29024,7 @@
         <v>1.0</v>
       </c>
       <c r="C205" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="206">
@@ -29038,7 +29035,7 @@
         <v>1.0</v>
       </c>
       <c r="C206" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="207">
@@ -29049,7 +29046,7 @@
         <v>1.0</v>
       </c>
       <c r="C207" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="208">
@@ -29060,7 +29057,7 @@
         <v>1.0</v>
       </c>
       <c r="C208" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="209">
@@ -29071,7 +29068,7 @@
         <v>1.0</v>
       </c>
       <c r="C209" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="210">
@@ -29082,7 +29079,7 @@
         <v>1.0</v>
       </c>
       <c r="C210" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="211">
@@ -29093,7 +29090,7 @@
         <v>1.0</v>
       </c>
       <c r="C211" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="212">
@@ -29104,7 +29101,7 @@
         <v>1.0</v>
       </c>
       <c r="C212" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="213">
@@ -29115,7 +29112,7 @@
         <v>1.0</v>
       </c>
       <c r="C213" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="214">
@@ -29126,7 +29123,7 @@
         <v>1.0</v>
       </c>
       <c r="C214" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="215">
@@ -29137,7 +29134,7 @@
         <v>1.0</v>
       </c>
       <c r="C215" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216">
@@ -29148,7 +29145,7 @@
         <v>1.0</v>
       </c>
       <c r="C216" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217">
@@ -29159,7 +29156,7 @@
         <v>1.0</v>
       </c>
       <c r="C217" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218">
@@ -29170,7 +29167,7 @@
         <v>1.0</v>
       </c>
       <c r="C218" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219">
@@ -29181,7 +29178,7 @@
         <v>1.0</v>
       </c>
       <c r="C219" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="220">
@@ -29192,7 +29189,7 @@
         <v>1.0</v>
       </c>
       <c r="C220" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221">
@@ -29203,7 +29200,7 @@
         <v>1.0</v>
       </c>
       <c r="C221" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="222">
@@ -29214,7 +29211,7 @@
         <v>2.0</v>
       </c>
       <c r="C222" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="223">
@@ -29225,7 +29222,7 @@
         <v>1.0</v>
       </c>
       <c r="C223" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224">
@@ -29236,7 +29233,7 @@
         <v>1.0</v>
       </c>
       <c r="C224" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="225">
@@ -29247,7 +29244,7 @@
         <v>0.0</v>
       </c>
       <c r="C225" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226">
@@ -29258,7 +29255,7 @@
         <v>0.0</v>
       </c>
       <c r="C226" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="227">
@@ -29269,7 +29266,7 @@
         <v>0.0</v>
       </c>
       <c r="C227" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="228">
@@ -29280,7 +29277,7 @@
         <v>0.0</v>
       </c>
       <c r="C228" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="229">
@@ -29291,7 +29288,7 @@
         <v>0.0</v>
       </c>
       <c r="C229" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="230">
@@ -29302,7 +29299,7 @@
         <v>0.0</v>
       </c>
       <c r="C230" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="231">
@@ -29313,7 +29310,7 @@
         <v>0.0</v>
       </c>
       <c r="C231" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="232">
@@ -29324,7 +29321,7 @@
         <v>0.0</v>
       </c>
       <c r="C232" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233">
@@ -29335,7 +29332,7 @@
         <v>0.0</v>
       </c>
       <c r="C233" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234">
@@ -29346,7 +29343,7 @@
         <v>0.0</v>
       </c>
       <c r="C234" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235">
@@ -29357,7 +29354,7 @@
         <v>0.0</v>
       </c>
       <c r="C235" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="236">
@@ -29368,7 +29365,7 @@
         <v>0.0</v>
       </c>
       <c r="C236" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="237">
@@ -29379,7 +29376,7 @@
         <v>0.0</v>
       </c>
       <c r="C237" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="238">
@@ -29390,7 +29387,7 @@
         <v>0.0</v>
       </c>
       <c r="C238" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="239">
@@ -29401,7 +29398,7 @@
         <v>0.0</v>
       </c>
       <c r="C239" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="240">
@@ -29412,7 +29409,7 @@
         <v>0.0</v>
       </c>
       <c r="C240" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="241">
@@ -29423,7 +29420,7 @@
         <v>0.0</v>
       </c>
       <c r="C241" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242">
@@ -29434,7 +29431,7 @@
         <v>1.0</v>
       </c>
       <c r="C242" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243">
@@ -29445,7 +29442,7 @@
         <v>0.0</v>
       </c>
       <c r="C243" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="244">
@@ -29456,7 +29453,7 @@
         <v>0.0</v>
       </c>
       <c r="C244" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="245">
@@ -29467,7 +29464,7 @@
         <v>0.0</v>
       </c>
       <c r="C245" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="246">
@@ -29478,7 +29475,7 @@
         <v>0.0</v>
       </c>
       <c r="C246" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="247">
@@ -29489,7 +29486,7 @@
         <v>0.0</v>
       </c>
       <c r="C247" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248">
@@ -29500,7 +29497,7 @@
         <v>0.0</v>
       </c>
       <c r="C248" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249">
@@ -29511,7 +29508,7 @@
         <v>0.0</v>
       </c>
       <c r="C249" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250">
@@ -29522,7 +29519,7 @@
         <v>0.0</v>
       </c>
       <c r="C250" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="251">
@@ -29533,7 +29530,7 @@
         <v>0.0</v>
       </c>
       <c r="C251" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="252">
@@ -29544,7 +29541,7 @@
         <v>0.0</v>
       </c>
       <c r="C252" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="253">
@@ -29555,7 +29552,7 @@
         <v>0.0</v>
       </c>
       <c r="C253" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="254">
@@ -29566,7 +29563,7 @@
         <v>0.0</v>
       </c>
       <c r="C254" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="255">
@@ -29577,7 +29574,7 @@
         <v>0.0</v>
       </c>
       <c r="C255" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="256">
@@ -29588,7 +29585,7 @@
         <v>0.0</v>
       </c>
       <c r="C256" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="257">
@@ -29599,7 +29596,7 @@
         <v>0.0</v>
       </c>
       <c r="C257" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="258">
@@ -29610,7 +29607,7 @@
         <v>0.0</v>
       </c>
       <c r="C258" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="259">
@@ -29621,7 +29618,7 @@
         <v>0.0</v>
       </c>
       <c r="C259" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="260">
@@ -29632,7 +29629,7 @@
         <v>0.0</v>
       </c>
       <c r="C260" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="261">
@@ -29643,7 +29640,7 @@
         <v>0.0</v>
       </c>
       <c r="C261" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="262">
@@ -29654,7 +29651,7 @@
         <v>0.0</v>
       </c>
       <c r="C262" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="263">
@@ -29665,7 +29662,7 @@
         <v>0.0</v>
       </c>
       <c r="C263" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="264">
@@ -29676,7 +29673,7 @@
         <v>0.0</v>
       </c>
       <c r="C264" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="265">
@@ -29687,7 +29684,7 @@
         <v>0.0</v>
       </c>
       <c r="C265" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="266">
@@ -29698,7 +29695,7 @@
         <v>0.0</v>
       </c>
       <c r="C266" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="267">
@@ -29709,7 +29706,7 @@
         <v>0.0</v>
       </c>
       <c r="C267" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="268">
@@ -29720,7 +29717,7 @@
         <v>0.0</v>
       </c>
       <c r="C268" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="269">
@@ -29731,7 +29728,7 @@
         <v>0.0</v>
       </c>
       <c r="C269" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="270">
@@ -29742,7 +29739,7 @@
         <v>0.0</v>
       </c>
       <c r="C270" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="271">
@@ -29753,7 +29750,7 @@
         <v>0.0</v>
       </c>
       <c r="C271" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="272">
@@ -29764,7 +29761,7 @@
         <v>0.0</v>
       </c>
       <c r="C272" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="273">
@@ -29775,7 +29772,7 @@
         <v>0.0</v>
       </c>
       <c r="C273" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="274">
@@ -29786,7 +29783,7 @@
         <v>0.0</v>
       </c>
       <c r="C274" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275">
@@ -29797,7 +29794,7 @@
         <v>0.0</v>
       </c>
       <c r="C275" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276">
@@ -29808,7 +29805,7 @@
         <v>0.0</v>
       </c>
       <c r="C276" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277">
@@ -29819,7 +29816,7 @@
         <v>0.0</v>
       </c>
       <c r="C277" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="278">
@@ -29830,7 +29827,7 @@
         <v>1.0</v>
       </c>
       <c r="C278" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279">
@@ -29841,7 +29838,7 @@
         <v>1.0</v>
       </c>
       <c r="C279" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="280">
@@ -29852,7 +29849,7 @@
         <v>1.0</v>
       </c>
       <c r="C280" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281">
@@ -29863,7 +29860,7 @@
         <v>1.0</v>
       </c>
       <c r="C281" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282">
@@ -29874,7 +29871,7 @@
         <v>1.0</v>
       </c>
       <c r="C282" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="283">
@@ -29885,7 +29882,7 @@
         <v>1.0</v>
       </c>
       <c r="C283" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="284">
@@ -29896,7 +29893,7 @@
         <v>0.0</v>
       </c>
       <c r="C284" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="285">
@@ -29907,7 +29904,7 @@
         <v>0.0</v>
       </c>
       <c r="C285" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="286">
@@ -29918,7 +29915,7 @@
         <v>0.0</v>
       </c>
       <c r="C286" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="287">
@@ -29929,7 +29926,7 @@
         <v>0.0</v>
       </c>
       <c r="C287" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="288">
@@ -29940,7 +29937,7 @@
         <v>0.0</v>
       </c>
       <c r="C288" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289">
@@ -29951,7 +29948,7 @@
         <v>0.0</v>
       </c>
       <c r="C289" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="290">
@@ -29962,7 +29959,7 @@
         <v>0.0</v>
       </c>
       <c r="C290" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="291">
@@ -29973,7 +29970,7 @@
         <v>0.0</v>
       </c>
       <c r="C291" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="292">
@@ -29984,7 +29981,7 @@
         <v>0.0</v>
       </c>
       <c r="C292" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="293">
@@ -29995,7 +29992,7 @@
         <v>0.0</v>
       </c>
       <c r="C293" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="294">
@@ -30006,7 +30003,7 @@
         <v>0.0</v>
       </c>
       <c r="C294" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="295">
@@ -30017,7 +30014,7 @@
         <v>0.0</v>
       </c>
       <c r="C295" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="296">
@@ -30028,7 +30025,7 @@
         <v>0.0</v>
       </c>
       <c r="C296" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="297">
@@ -30039,7 +30036,7 @@
         <v>0.0</v>
       </c>
       <c r="C297" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="298">
@@ -30050,7 +30047,7 @@
         <v>0.0</v>
       </c>
       <c r="C298" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="299">
@@ -30061,7 +30058,7 @@
         <v>0.0</v>
       </c>
       <c r="C299" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="300">
@@ -30072,7 +30069,7 @@
         <v>0.0</v>
       </c>
       <c r="C300" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="301">
@@ -30083,7 +30080,7 @@
         <v>0.0</v>
       </c>
       <c r="C301" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="302">
@@ -30094,7 +30091,7 @@
         <v>0.0</v>
       </c>
       <c r="C302" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="303">
@@ -30105,7 +30102,7 @@
         <v>0.0</v>
       </c>
       <c r="C303" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="304">
@@ -30116,7 +30113,7 @@
         <v>0.0</v>
       </c>
       <c r="C304" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="305">
@@ -30127,7 +30124,7 @@
         <v>0.0</v>
       </c>
       <c r="C305" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="306">
@@ -30138,7 +30135,7 @@
         <v>1.0</v>
       </c>
       <c r="C306" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="307">
@@ -30149,7 +30146,7 @@
         <v>0.0</v>
       </c>
       <c r="C307" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="308">
@@ -30160,7 +30157,7 @@
         <v>0.0</v>
       </c>
       <c r="C308" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="309">
@@ -30171,7 +30168,7 @@
         <v>0.0</v>
       </c>
       <c r="C309" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="310">
@@ -30182,7 +30179,7 @@
         <v>0.0</v>
       </c>
       <c r="C310" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="311">
@@ -30193,7 +30190,7 @@
         <v>0.0</v>
       </c>
       <c r="C311" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="312">
@@ -30204,7 +30201,7 @@
         <v>0.0</v>
       </c>
       <c r="C312" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="313">
@@ -30215,7 +30212,7 @@
         <v>0.0</v>
       </c>
       <c r="C313" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="314">
@@ -30226,7 +30223,7 @@
         <v>0.0</v>
       </c>
       <c r="C314" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="315">
@@ -30237,7 +30234,7 @@
         <v>0.0</v>
       </c>
       <c r="C315" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="316">
@@ -30248,7 +30245,7 @@
         <v>0.0</v>
       </c>
       <c r="C316" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="317">
@@ -30259,7 +30256,7 @@
         <v>0.0</v>
       </c>
       <c r="C317" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="318">
@@ -30270,7 +30267,7 @@
         <v>0.0</v>
       </c>
       <c r="C318" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="319">
@@ -30281,7 +30278,7 @@
         <v>0.0</v>
       </c>
       <c r="C319" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="320">
@@ -30292,7 +30289,7 @@
         <v>0.0</v>
       </c>
       <c r="C320" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="321">
@@ -30303,7 +30300,7 @@
         <v>0.0</v>
       </c>
       <c r="C321" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="322">
@@ -30314,7 +30311,7 @@
         <v>1.0</v>
       </c>
       <c r="C322" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="323">
@@ -30325,7 +30322,7 @@
         <v>0.0</v>
       </c>
       <c r="C323" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="324">
@@ -30336,7 +30333,7 @@
         <v>0.0</v>
       </c>
       <c r="C324" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="325">
@@ -30347,7 +30344,7 @@
         <v>0.0</v>
       </c>
       <c r="C325" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="326">
@@ -30358,7 +30355,7 @@
         <v>0.0</v>
       </c>
       <c r="C326" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="327">
@@ -30369,7 +30366,7 @@
         <v>0.0</v>
       </c>
       <c r="C327" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="328">
@@ -30380,7 +30377,7 @@
         <v>0.0</v>
       </c>
       <c r="C328" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="329">
@@ -30391,7 +30388,7 @@
         <v>0.0</v>
       </c>
       <c r="C329" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="330">
@@ -30402,7 +30399,7 @@
         <v>0.0</v>
       </c>
       <c r="C330" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="331">
@@ -30413,7 +30410,7 @@
         <v>0.0</v>
       </c>
       <c r="C331" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="332">
@@ -30424,7 +30421,7 @@
         <v>0.0</v>
       </c>
       <c r="C332" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="333">
@@ -30435,7 +30432,7 @@
         <v>0.0</v>
       </c>
       <c r="C333" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="334">
@@ -30446,7 +30443,7 @@
         <v>0.0</v>
       </c>
       <c r="C334" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="335">
@@ -30457,7 +30454,7 @@
         <v>0.0</v>
       </c>
       <c r="C335" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="336">
@@ -30468,7 +30465,7 @@
         <v>0.0</v>
       </c>
       <c r="C336" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="337">
@@ -30479,7 +30476,7 @@
         <v>0.0</v>
       </c>
       <c r="C337" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="338">
@@ -30490,7 +30487,7 @@
         <v>2.0</v>
       </c>
       <c r="C338" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="339">
@@ -30501,7 +30498,7 @@
         <v>2.0</v>
       </c>
       <c r="C339" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="340">
@@ -30512,7 +30509,7 @@
         <v>3.0</v>
       </c>
       <c r="C340" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="341">
@@ -30523,7 +30520,7 @@
         <v>3.0</v>
       </c>
       <c r="C341" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342">
@@ -30534,7 +30531,7 @@
         <v>2.0</v>
       </c>
       <c r="C342" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="343">
@@ -30545,7 +30542,7 @@
         <v>1.0</v>
       </c>
       <c r="C343" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="344">
@@ -30556,7 +30553,7 @@
         <v>1.0</v>
       </c>
       <c r="C344" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="345">
@@ -30567,7 +30564,7 @@
         <v>1.0</v>
       </c>
       <c r="C345" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="346">
@@ -30578,7 +30575,7 @@
         <v>2.0</v>
       </c>
       <c r="C346" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="347">
@@ -30589,7 +30586,7 @@
         <v>1.0</v>
       </c>
       <c r="C347" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="348">
@@ -30600,7 +30597,7 @@
         <v>1.0</v>
       </c>
       <c r="C348" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="349">
@@ -30611,7 +30608,7 @@
         <v>1.0</v>
       </c>
       <c r="C349" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="350">
@@ -30622,7 +30619,7 @@
         <v>1.0</v>
       </c>
       <c r="C350" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="351">
@@ -30633,7 +30630,7 @@
         <v>1.0</v>
       </c>
       <c r="C351" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="352">
@@ -30644,7 +30641,7 @@
         <v>2.0</v>
       </c>
       <c r="C352" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="353">
@@ -30655,7 +30652,7 @@
         <v>2.0</v>
       </c>
       <c r="C353" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="354">
@@ -30666,7 +30663,7 @@
         <v>2.0</v>
       </c>
       <c r="C354" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="355">
@@ -30677,7 +30674,7 @@
         <v>1.0</v>
       </c>
       <c r="C355" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="356">
@@ -30688,7 +30685,7 @@
         <v>1.0</v>
       </c>
       <c r="C356" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="357">
@@ -30699,7 +30696,7 @@
         <v>1.0</v>
       </c>
       <c r="C357" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="358">
@@ -30710,7 +30707,7 @@
         <v>2.0</v>
       </c>
       <c r="C358" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="359">
@@ -30721,7 +30718,7 @@
         <v>1.0</v>
       </c>
       <c r="C359" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="360">
@@ -30732,7 +30729,7 @@
         <v>2.0</v>
       </c>
       <c r="C360" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="361">
@@ -30743,7 +30740,7 @@
         <v>2.0</v>
       </c>
       <c r="C361" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="362">
@@ -30754,7 +30751,7 @@
         <v>2.0</v>
       </c>
       <c r="C362" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="363">
@@ -30765,7 +30762,7 @@
         <v>0.0</v>
       </c>
       <c r="C363" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="364">
@@ -30776,7 +30773,7 @@
         <v>1.0</v>
       </c>
       <c r="C364" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="365">
@@ -30787,7 +30784,7 @@
         <v>0.0</v>
       </c>
       <c r="C365" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="366">
@@ -30798,7 +30795,7 @@
         <v>0.0</v>
       </c>
       <c r="C366" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="367">
@@ -30809,7 +30806,7 @@
         <v>0.0</v>
       </c>
       <c r="C367" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="368">
@@ -30820,7 +30817,7 @@
         <v>0.0</v>
       </c>
       <c r="C368" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="369">
@@ -30831,7 +30828,7 @@
         <v>0.0</v>
       </c>
       <c r="C369" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="370">
@@ -30842,7 +30839,7 @@
         <v>0.0</v>
       </c>
       <c r="C370" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="371">
@@ -30853,7 +30850,7 @@
         <v>1.0</v>
       </c>
       <c r="C371" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="372">
@@ -30864,7 +30861,7 @@
         <v>1.0</v>
       </c>
       <c r="C372" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="373">
@@ -30875,7 +30872,7 @@
         <v>0.0</v>
       </c>
       <c r="C373" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="374">
@@ -30886,7 +30883,7 @@
         <v>0.0</v>
       </c>
       <c r="C374" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="375">
@@ -30897,7 +30894,7 @@
         <v>0.0</v>
       </c>
       <c r="C375" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="376">
@@ -30908,7 +30905,7 @@
         <v>0.0</v>
       </c>
       <c r="C376" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="377">
@@ -30919,7 +30916,7 @@
         <v>0.0</v>
       </c>
       <c r="C377" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="378">
@@ -30930,7 +30927,7 @@
         <v>0.0</v>
       </c>
       <c r="C378" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="379">
@@ -30941,7 +30938,7 @@
         <v>0.0</v>
       </c>
       <c r="C379" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="380">
@@ -30952,7 +30949,7 @@
         <v>0.0</v>
       </c>
       <c r="C380" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="381">
@@ -30963,7 +30960,7 @@
         <v>0.0</v>
       </c>
       <c r="C381" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="382">
@@ -30974,7 +30971,7 @@
         <v>0.0</v>
       </c>
       <c r="C382" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="383">
@@ -30985,7 +30982,7 @@
         <v>0.0</v>
       </c>
       <c r="C383" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="384">
@@ -30996,7 +30993,7 @@
         <v>0.0</v>
       </c>
       <c r="C384" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="385">
@@ -31007,7 +31004,7 @@
         <v>1.0</v>
       </c>
       <c r="C385" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="386">
@@ -31018,7 +31015,7 @@
         <v>0.0</v>
       </c>
       <c r="C386" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="387">
@@ -31029,7 +31026,7 @@
         <v>0.0</v>
       </c>
       <c r="C387" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="388">
@@ -31040,7 +31037,7 @@
         <v>0.0</v>
       </c>
       <c r="C388" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="389">
@@ -31051,7 +31048,7 @@
         <v>0.0</v>
       </c>
       <c r="C389" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="390">
@@ -31062,7 +31059,7 @@
         <v>0.0</v>
       </c>
       <c r="C390" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="391">
@@ -31073,7 +31070,7 @@
         <v>0.0</v>
       </c>
       <c r="C391" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="392">
@@ -31084,7 +31081,7 @@
         <v>0.0</v>
       </c>
       <c r="C392" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="393">
@@ -31095,7 +31092,7 @@
         <v>0.0</v>
       </c>
       <c r="C393" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="394">
@@ -31106,7 +31103,7 @@
         <v>0.0</v>
       </c>
       <c r="C394" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="395">
@@ -31117,7 +31114,7 @@
         <v>0.0</v>
       </c>
       <c r="C395" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="396">
@@ -31128,7 +31125,7 @@
         <v>4.0</v>
       </c>
       <c r="C396" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="397">
@@ -31139,7 +31136,7 @@
         <v>3.0</v>
       </c>
       <c r="C397" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="398">
@@ -31150,7 +31147,7 @@
         <v>4.0</v>
       </c>
       <c r="C398" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="399">
@@ -31161,7 +31158,7 @@
         <v>4.0</v>
       </c>
       <c r="C399" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="400">
@@ -31172,7 +31169,7 @@
         <v>4.0</v>
       </c>
       <c r="C400" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="401">
@@ -31183,7 +31180,7 @@
         <v>2.0</v>
       </c>
       <c r="C401" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="402">
@@ -31194,7 +31191,7 @@
         <v>4.0</v>
       </c>
       <c r="C402" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="403">
@@ -31205,7 +31202,7 @@
         <v>4.0</v>
       </c>
       <c r="C403" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="404">
@@ -31216,7 +31213,7 @@
         <v>4.0</v>
       </c>
       <c r="C404" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="405">
@@ -31227,7 +31224,7 @@
         <v>4.0</v>
       </c>
       <c r="C405" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="406">
@@ -31238,7 +31235,7 @@
         <v>3.0</v>
       </c>
       <c r="C406" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="407">
@@ -31249,7 +31246,7 @@
         <v>3.0</v>
       </c>
       <c r="C407" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408">
@@ -31260,7 +31257,7 @@
         <v>4.0</v>
       </c>
       <c r="C408" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="409">
@@ -31271,7 +31268,7 @@
         <v>4.0</v>
       </c>
       <c r="C409" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="410">
@@ -31282,7 +31279,7 @@
         <v>4.0</v>
       </c>
       <c r="C410" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="411">
@@ -31293,7 +31290,7 @@
         <v>4.0</v>
       </c>
       <c r="C411" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="412">
@@ -31304,7 +31301,7 @@
         <v>4.0</v>
       </c>
       <c r="C412" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="413">
@@ -31315,7 +31312,7 @@
         <v>4.0</v>
       </c>
       <c r="C413" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="414">
@@ -31326,7 +31323,7 @@
         <v>0.0</v>
       </c>
       <c r="C414" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="415">
@@ -31337,7 +31334,7 @@
         <v>0.0</v>
       </c>
       <c r="C415" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="416">
@@ -31348,7 +31345,7 @@
         <v>0.0</v>
       </c>
       <c r="C416" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="417">
@@ -31359,7 +31356,7 @@
         <v>0.0</v>
       </c>
       <c r="C417" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="418">
@@ -31370,7 +31367,7 @@
         <v>0.0</v>
       </c>
       <c r="C418" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="419">
@@ -31381,7 +31378,7 @@
         <v>0.0</v>
       </c>
       <c r="C419" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="420">
@@ -31392,7 +31389,7 @@
         <v>0.0</v>
       </c>
       <c r="C420" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="421">
@@ -31403,7 +31400,7 @@
         <v>0.0</v>
       </c>
       <c r="C421" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="422">
@@ -31414,7 +31411,7 @@
         <v>0.0</v>
       </c>
       <c r="C422" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="423">
@@ -31425,7 +31422,7 @@
         <v>0.0</v>
       </c>
       <c r="C423" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="424">
@@ -31436,7 +31433,7 @@
         <v>0.0</v>
       </c>
       <c r="C424" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="425">
@@ -31447,7 +31444,7 @@
         <v>0.0</v>
       </c>
       <c r="C425" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="426">
@@ -31458,7 +31455,7 @@
         <v>0.0</v>
       </c>
       <c r="C426" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="427">
@@ -31469,7 +31466,7 @@
         <v>0.0</v>
       </c>
       <c r="C427" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="428">
@@ -31480,7 +31477,7 @@
         <v>0.0</v>
       </c>
       <c r="C428" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="429">
@@ -31491,7 +31488,7 @@
         <v>0.0</v>
       </c>
       <c r="C429" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="430">
@@ -31502,7 +31499,7 @@
         <v>0.0</v>
       </c>
       <c r="C430" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="431">
@@ -31513,7 +31510,7 @@
         <v>1.0</v>
       </c>
       <c r="C431" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="432">
@@ -31524,7 +31521,7 @@
         <v>1.0</v>
       </c>
       <c r="C432" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="433">
@@ -31535,7 +31532,7 @@
         <v>0.0</v>
       </c>
       <c r="C433" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="434">
@@ -31546,7 +31543,7 @@
         <v>1.0</v>
       </c>
       <c r="C434" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="435">
@@ -31557,7 +31554,7 @@
         <v>0.0</v>
       </c>
       <c r="C435" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="436">
@@ -31568,7 +31565,7 @@
         <v>0.0</v>
       </c>
       <c r="C436" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="437">
@@ -31579,7 +31576,7 @@
         <v>0.0</v>
       </c>
       <c r="C437" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="438">
@@ -31590,7 +31587,7 @@
         <v>0.0</v>
       </c>
       <c r="C438" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="439">
@@ -31601,7 +31598,7 @@
         <v>0.0</v>
       </c>
       <c r="C439" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="440">
@@ -31612,7 +31609,7 @@
         <v>1.0</v>
       </c>
       <c r="C440" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="441">
@@ -31623,7 +31620,7 @@
         <v>1.0</v>
       </c>
       <c r="C441" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="442">
@@ -31634,7 +31631,7 @@
         <v>1.0</v>
       </c>
       <c r="C442" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="443">
@@ -31645,7 +31642,7 @@
         <v>1.0</v>
       </c>
       <c r="C443" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="444">
@@ -31656,7 +31653,7 @@
         <v>1.0</v>
       </c>
       <c r="C444" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="445">
@@ -31667,7 +31664,7 @@
         <v>0.0</v>
       </c>
       <c r="C445" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="446">
@@ -31678,7 +31675,7 @@
         <v>1.0</v>
       </c>
       <c r="C446" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="447">
@@ -31689,7 +31686,7 @@
         <v>1.0</v>
       </c>
       <c r="C447" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="448">
@@ -31700,7 +31697,7 @@
         <v>1.0</v>
       </c>
       <c r="C448" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="449">
@@ -31711,7 +31708,7 @@
         <v>1.0</v>
       </c>
       <c r="C449" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="450">
@@ -31722,7 +31719,7 @@
         <v>1.0</v>
       </c>
       <c r="C450" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="451">
@@ -31733,7 +31730,7 @@
         <v>1.0</v>
       </c>
       <c r="C451" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="452">
@@ -31744,7 +31741,7 @@
         <v>1.0</v>
       </c>
       <c r="C452" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="453">
@@ -31755,7 +31752,7 @@
         <v>1.0</v>
       </c>
       <c r="C453" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="454">
@@ -31766,7 +31763,7 @@
         <v>1.0</v>
       </c>
       <c r="C454" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="455">
@@ -31777,7 +31774,7 @@
         <v>1.0</v>
       </c>
       <c r="C455" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="456">
@@ -31788,7 +31785,7 @@
         <v>1.0</v>
       </c>
       <c r="C456" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="457">
@@ -31799,7 +31796,7 @@
         <v>1.0</v>
       </c>
       <c r="C457" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="458">
@@ -31810,7 +31807,7 @@
         <v>1.0</v>
       </c>
       <c r="C458" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="459">
@@ -31821,7 +31818,7 @@
         <v>1.0</v>
       </c>
       <c r="C459" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="460">
@@ -31832,7 +31829,7 @@
         <v>1.0</v>
       </c>
       <c r="C460" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="461">
@@ -31843,7 +31840,7 @@
         <v>2.0</v>
       </c>
       <c r="C461" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="462">
@@ -31854,7 +31851,7 @@
         <v>2.0</v>
       </c>
       <c r="C462" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="463">
@@ -31865,7 +31862,7 @@
         <v>2.0</v>
       </c>
       <c r="C463" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="464">
@@ -31876,7 +31873,7 @@
         <v>3.0</v>
       </c>
       <c r="C464" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="465">
@@ -31887,7 +31884,7 @@
         <v>2.0</v>
       </c>
       <c r="C465" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="466">
@@ -31898,7 +31895,7 @@
         <v>3.0</v>
       </c>
       <c r="C466" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="467">
@@ -31909,7 +31906,7 @@
         <v>3.0</v>
       </c>
       <c r="C467" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="468">
@@ -31920,7 +31917,7 @@
         <v>2.0</v>
       </c>
       <c r="C468" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="469">
@@ -31931,7 +31928,7 @@
         <v>2.0</v>
       </c>
       <c r="C469" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="470">
@@ -31942,7 +31939,7 @@
         <v>2.0</v>
       </c>
       <c r="C470" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="471">
@@ -31953,7 +31950,7 @@
         <v>2.0</v>
       </c>
       <c r="C471" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="472">
@@ -31964,7 +31961,7 @@
         <v>2.0</v>
       </c>
       <c r="C472" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="473">
@@ -31975,7 +31972,7 @@
         <v>2.0</v>
       </c>
       <c r="C473" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="474">
@@ -31986,7 +31983,7 @@
         <v>2.0</v>
       </c>
       <c r="C474" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="475">
@@ -31997,7 +31994,7 @@
         <v>2.0</v>
       </c>
       <c r="C475" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="476">
@@ -32008,7 +32005,7 @@
         <v>2.0</v>
       </c>
       <c r="C476" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="477">
@@ -32019,7 +32016,7 @@
         <v>2.0</v>
       </c>
       <c r="C477" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="478">
@@ -32030,7 +32027,7 @@
         <v>2.0</v>
       </c>
       <c r="C478" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="479">
@@ -32041,7 +32038,7 @@
         <v>2.0</v>
       </c>
       <c r="C479" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="480">
@@ -32052,7 +32049,7 @@
         <v>2.0</v>
       </c>
       <c r="C480" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="481">
@@ -32063,7 +32060,7 @@
         <v>2.0</v>
       </c>
       <c r="C481" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="482">
@@ -32074,7 +32071,7 @@
         <v>2.0</v>
       </c>
       <c r="C482" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="483">
@@ -32085,7 +32082,7 @@
         <v>2.0</v>
       </c>
       <c r="C483" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="484">
@@ -32096,7 +32093,7 @@
         <v>2.0</v>
       </c>
       <c r="C484" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="485">
@@ -32107,7 +32104,7 @@
         <v>2.0</v>
       </c>
       <c r="C485" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="486">
@@ -32118,7 +32115,7 @@
         <v>2.0</v>
       </c>
       <c r="C486" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="487">
@@ -32129,7 +32126,7 @@
         <v>2.0</v>
       </c>
       <c r="C487" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="488">
@@ -32140,7 +32137,7 @@
         <v>2.0</v>
       </c>
       <c r="C488" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="489">
@@ -32151,7 +32148,7 @@
         <v>2.0</v>
       </c>
       <c r="C489" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="490">
@@ -32162,7 +32159,7 @@
         <v>2.0</v>
       </c>
       <c r="C490" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="491">
@@ -32173,7 +32170,7 @@
         <v>2.0</v>
       </c>
       <c r="C491" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="492">
@@ -32184,7 +32181,7 @@
         <v>2.0</v>
       </c>
       <c r="C492" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="493">
@@ -32195,7 +32192,7 @@
         <v>1.0</v>
       </c>
       <c r="C493" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="494">
@@ -32206,7 +32203,7 @@
         <v>1.0</v>
       </c>
       <c r="C494" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="495">
@@ -32217,7 +32214,7 @@
         <v>1.0</v>
       </c>
       <c r="C495" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="496">
@@ -32228,7 +32225,7 @@
         <v>1.0</v>
       </c>
       <c r="C496" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="497">
@@ -32239,7 +32236,7 @@
         <v>1.0</v>
       </c>
       <c r="C497" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="498">
@@ -32250,7 +32247,7 @@
         <v>1.0</v>
       </c>
       <c r="C498" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="499">
@@ -32261,7 +32258,7 @@
         <v>1.0</v>
       </c>
       <c r="C499" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="500">
@@ -32272,7 +32269,7 @@
         <v>1.0</v>
       </c>
       <c r="C500" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="501">
@@ -32283,7 +32280,7 @@
         <v>1.0</v>
       </c>
       <c r="C501" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="502">
@@ -32294,7 +32291,7 @@
         <v>1.0</v>
       </c>
       <c r="C502" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="503">
@@ -32305,7 +32302,7 @@
         <v>1.0</v>
       </c>
       <c r="C503" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="504">
@@ -32316,7 +32313,7 @@
         <v>2.0</v>
       </c>
       <c r="C504" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="505">
@@ -32327,7 +32324,7 @@
         <v>2.0</v>
       </c>
       <c r="C505" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="506">
@@ -32338,7 +32335,7 @@
         <v>1.0</v>
       </c>
       <c r="C506" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="507">
@@ -32349,7 +32346,7 @@
         <v>2.0</v>
       </c>
       <c r="C507" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="508">
@@ -32360,7 +32357,7 @@
         <v>1.0</v>
       </c>
       <c r="C508" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="509">
@@ -32371,7 +32368,7 @@
         <v>2.0</v>
       </c>
       <c r="C509" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="510">
@@ -32382,7 +32379,7 @@
         <v>1.0</v>
       </c>
       <c r="C510" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="511">
@@ -32393,7 +32390,7 @@
         <v>2.0</v>
       </c>
       <c r="C511" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="512">
@@ -32404,7 +32401,7 @@
         <v>1.0</v>
       </c>
       <c r="C512" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="513">
@@ -32415,7 +32412,7 @@
         <v>1.0</v>
       </c>
       <c r="C513" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="514">
@@ -32426,7 +32423,7 @@
         <v>1.0</v>
       </c>
       <c r="C514" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="515">
@@ -32437,7 +32434,7 @@
         <v>1.0</v>
       </c>
       <c r="C515" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="516">
@@ -32448,7 +32445,7 @@
         <v>2.0</v>
       </c>
       <c r="C516" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="517">
@@ -32459,7 +32456,7 @@
         <v>1.0</v>
       </c>
       <c r="C517" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="518">
@@ -32470,7 +32467,7 @@
         <v>1.0</v>
       </c>
       <c r="C518" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="519">
@@ -32481,7 +32478,7 @@
         <v>1.0</v>
       </c>
       <c r="C519" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="520">
@@ -32492,7 +32489,7 @@
         <v>1.0</v>
       </c>
       <c r="C520" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="521">
@@ -32503,7 +32500,7 @@
         <v>1.0</v>
       </c>
       <c r="C521" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="522">
@@ -32514,7 +32511,7 @@
         <v>1.0</v>
       </c>
       <c r="C522" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="523">
@@ -32525,7 +32522,7 @@
         <v>1.0</v>
       </c>
       <c r="C523" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="524">
@@ -32536,7 +32533,7 @@
         <v>1.0</v>
       </c>
       <c r="C524" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="525">
@@ -32547,7 +32544,7 @@
         <v>1.0</v>
       </c>
       <c r="C525" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="526">
@@ -32558,7 +32555,7 @@
         <v>1.0</v>
       </c>
       <c r="C526" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="527">
@@ -32569,7 +32566,7 @@
         <v>1.0</v>
       </c>
       <c r="C527" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
